--- a/maximos_e.xlsx
+++ b/maximos_e.xlsx
@@ -9,20 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10680" windowHeight="6090" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10680" windowHeight="6090" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="maximos raw" sheetId="1" r:id="rId1"/>
     <sheet name="maximos resumen" sheetId="2" r:id="rId2"/>
-    <sheet name="maximos + ponderacion" sheetId="5" r:id="rId3"/>
-    <sheet name="ponderaciones" sheetId="4" r:id="rId4"/>
+    <sheet name="maximos -v2" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="48">
   <si>
     <t>n_datos</t>
   </si>
@@ -129,13 +128,7 @@
     <t>Fuente</t>
   </si>
   <si>
-    <t>Máximo IQR</t>
-  </si>
-  <si>
     <t>CE</t>
-  </si>
-  <si>
-    <t>CR</t>
   </si>
   <si>
     <t>IE</t>
@@ -145,12 +138,6 @@
   </si>
   <si>
     <t>Final</t>
-  </si>
-  <si>
-    <t>Mayúsculas</t>
-  </si>
-  <si>
-    <t>No mayúsculas</t>
   </si>
   <si>
     <t>Emol</t>
@@ -168,110 +155,23 @@
     <t>Telegram</t>
   </si>
   <si>
-    <t>Asertividad</t>
+    <t>Maximo IQR</t>
   </si>
   <si>
-    <t>Autoconciencia Emocional</t>
+    <t>AE</t>
   </si>
   <si>
-    <t>Autoestima</t>
+    <t>CS</t>
   </si>
   <si>
-    <t>Colaboración y Cooperación</t>
-  </si>
-  <si>
-    <t>Comprensión Organizativa</t>
-  </si>
-  <si>
-    <t>Conciencia Crítica</t>
-  </si>
-  <si>
-    <t>Desarrollo de las relaciones</t>
-  </si>
-  <si>
-    <t>Empatía</t>
-  </si>
-  <si>
-    <t>Influencia</t>
-  </si>
-  <si>
-    <t>Liderazgo</t>
-  </si>
-  <si>
-    <t>Manejo de conflictos</t>
-  </si>
-  <si>
-    <t>Motivación de logro</t>
-  </si>
-  <si>
-    <t>Optimismo</t>
-  </si>
-  <si>
-    <t>Percepción y comprensión Emocional</t>
-  </si>
-  <si>
-    <t>Relación Social</t>
-  </si>
-  <si>
-    <t>Tolerancia a la frustración</t>
-  </si>
-  <si>
-    <t>Violencia</t>
-  </si>
-  <si>
-    <t>Polaridad Positiva</t>
-  </si>
-  <si>
-    <t>Polaridad Negativa</t>
-  </si>
-  <si>
-    <t>INDICE</t>
-  </si>
-  <si>
-    <t>iqr</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>pol &gt; 0</t>
-  </si>
-  <si>
-    <t>pol &lt; 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pol &lt; 0 </t>
-  </si>
-  <si>
-    <t>mayus</t>
-  </si>
-  <si>
-    <t>mayusc si pol &gt;0</t>
-  </si>
-  <si>
-    <t>mayusc si pol &lt;0</t>
-  </si>
-  <si>
-    <t>indice</t>
-  </si>
-  <si>
-    <t>Criterio</t>
-  </si>
-  <si>
-    <t>sumas</t>
-  </si>
-  <si>
-    <t>pol &lt; 0 m</t>
-  </si>
-  <si>
-    <t>pol &gt; 0 m</t>
+    <t>RS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,19 +193,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,15 +201,39 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="39">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -343,80 +254,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -621,108 +458,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -767,15 +502,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color indexed="64"/>
       </left>
@@ -790,166 +516,149 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1254,7 +963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H171"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
@@ -5713,562 +5422,464 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:X20"/>
+  <dimension ref="B1:T16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M1" s="48"/>
-    </row>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+    <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I1" s="16"/>
+    </row>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B2" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="16"/>
+    </row>
+    <row r="3" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="29"/>
+      <c r="C3" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="55" t="s">
+      <c r="D3" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="48"/>
-    </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B3" s="25"/>
-      <c r="C3" s="30" t="s">
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="16"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="5">
+        <f>AVERAGE('maximos -v2'!G2:G4)</f>
+        <v>1.7050000000000001</v>
+      </c>
+      <c r="D4" s="3">
+        <f>AVERAGE('maximos -v2'!G16,'maximos -v2'!G14,'maximos -v2'!G8)</f>
+        <v>1.3949999999999998</v>
+      </c>
+      <c r="E4" s="3">
+        <f>AVERAGE('maximos -v2'!G11,'maximos -v2'!G5,'maximos -v2'!G17,'maximos -v2'!G9)</f>
+        <v>1.8149999999999999</v>
+      </c>
+      <c r="F4" s="13">
+        <f>AVERAGE('maximos -v2'!G10,'maximos -v2'!G12,'maximos -v2'!G7,'maximos -v2'!G18)</f>
+        <v>2.2175000000000002</v>
+      </c>
+      <c r="G4" s="30">
+        <f>AVERAGE(C4,D4)+AVERAGE(E4+F4)</f>
+        <v>5.5825000000000005</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="6">
+        <f>AVERAGE('maximos -v2'!G19:G21)</f>
+        <v>1.835</v>
+      </c>
+      <c r="D5" s="2">
+        <f>AVERAGE('maximos -v2'!G31,'maximos -v2'!G33,'maximos -v2'!G25)</f>
+        <v>1.8483333333333334</v>
+      </c>
+      <c r="E5" s="2">
+        <f>AVERAGE('maximos -v2'!G22,'maximos -v2'!G26,'maximos -v2'!G28,'maximos -v2'!G34)</f>
+        <v>2.129375</v>
+      </c>
+      <c r="F5" s="14">
+        <f>AVERAGE('maximos -v2'!G24,'maximos -v2'!G27,'maximos -v2'!G29,'maximos -v2'!G32,'maximos -v2'!G35)</f>
+        <v>2.3460000000000001</v>
+      </c>
+      <c r="G5" s="30">
+        <f t="shared" ref="G5:G8" si="0">AVERAGE(C5,D5)+AVERAGE(E5+F5)</f>
+        <v>6.3170416666666664</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="6">
+        <f>AVERAGE('maximos -v2'!G36:G38)</f>
+        <v>1.1633333333333333</v>
+      </c>
+      <c r="D6" s="2">
+        <f>AVERAGE('maximos -v2'!G42,'maximos -v2'!G48,'maximos -v2'!G50)</f>
+        <v>1.1700000000000002</v>
+      </c>
+      <c r="E6" s="2">
+        <f>AVERAGE('maximos -v2'!G39,'maximos -v2'!G43,'maximos -v2'!G45,'maximos -v2'!G51)</f>
+        <v>1.25</v>
+      </c>
+      <c r="F6" s="14">
+        <f>AVERAGE('maximos -v2'!G41,'maximos -v2'!G44,'maximos -v2'!G46,'maximos -v2'!G49,'maximos -v2'!G52)</f>
+        <v>1.54925</v>
+      </c>
+      <c r="G6" s="30">
+        <f t="shared" si="0"/>
+        <v>3.9659166666666668</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="6">
+        <f>AVERAGE('maximos -v2'!G53:G55)</f>
+        <v>1.4104166666666667</v>
+      </c>
+      <c r="D7" s="2">
+        <f>AVERAGE('maximos -v2'!G59,'maximos -v2'!G65,'maximos -v2'!G67)</f>
+        <v>1.4220833333333334</v>
+      </c>
+      <c r="E7" s="2">
+        <f>AVERAGE('maximos -v2'!G68,'maximos -v2'!G62,'maximos -v2'!G60,'maximos -v2'!G56)</f>
+        <v>1.7346875000000002</v>
+      </c>
+      <c r="F7" s="14">
+        <f>AVERAGE('maximos -v2'!G69,'maximos -v2'!G66,'maximos -v2'!G63,'maximos -v2'!G61,'maximos -v2'!G58)</f>
+        <v>1.6182500000000002</v>
+      </c>
+      <c r="G7" s="30">
+        <f t="shared" si="0"/>
+        <v>4.7691875000000001</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+    </row>
+    <row r="8" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="7">
+        <f>AVERAGE('maximos -v2'!G70:G72)</f>
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="D8" s="4">
+        <f>AVERAGE('maximos -v2'!G76,'maximos -v2'!G82,'maximos -v2'!G84)</f>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="E8" s="4">
+        <f>AVERAGE('maximos -v2'!G73,'maximos -v2'!G77,'maximos -v2'!G79,'maximos -v2'!G85)</f>
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="F8" s="15">
+        <f>AVERAGE('maximos -v2'!G75,'maximos -v2'!G78,'maximos -v2'!G80,'maximos -v2'!G83,'maximos -v2'!G86)</f>
+        <v>0.8</v>
+      </c>
+      <c r="G8" s="22">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+    </row>
+    <row r="9" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="21"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="48"/>
-    </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B4" s="25"/>
-      <c r="C4" s="33" t="s">
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+    </row>
+    <row r="11" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="24"/>
+      <c r="C11" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="16"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2.85</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2.8699999999999997</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3.3774999999999999</v>
+      </c>
+      <c r="F12" s="13">
+        <v>3.8425000000000002</v>
+      </c>
+      <c r="G12" s="30">
+        <f>AVERAGE(C12,D12)+AVERAGE(E12+F12)</f>
+        <v>10.08</v>
+      </c>
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="6">
+        <v>3.3433333333333337</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3.3366666666666664</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3.2249999999999996</v>
+      </c>
+      <c r="F13" s="14">
+        <v>3.9579999999999997</v>
+      </c>
+      <c r="G13" s="11">
+        <f t="shared" ref="G13:G16" si="1">AVERAGE(C13,D13)+AVERAGE(E13+F13)</f>
+        <v>10.523</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="6">
+        <v>2.3633333333333333</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2.3266666666666667</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2.4874999999999998</v>
+      </c>
+      <c r="F14" s="14">
+        <v>3.0380000000000003</v>
+      </c>
+      <c r="G14" s="11">
+        <f t="shared" si="1"/>
+        <v>7.8704999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="62"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="48"/>
-    </row>
-    <row r="5" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="26"/>
-      <c r="C5" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="K5" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="48"/>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="s">
+      <c r="C15" s="6">
+        <v>2.36</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2.4233333333333333</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.7425000000000002</v>
+      </c>
+      <c r="F15" s="14">
+        <v>2.6219999999999999</v>
+      </c>
+      <c r="G15" s="11">
+        <f t="shared" si="1"/>
+        <v>7.7561666666666662</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="17">
-        <v>33.785500000000006</v>
-      </c>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="48"/>
-      <c r="X6" s="48"/>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="17">
-        <v>38.974000000000004</v>
-      </c>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="48"/>
-      <c r="X7" s="48"/>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="17">
-        <v>24.326750000000001</v>
-      </c>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="48"/>
-      <c r="X8" s="48"/>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="17">
-        <v>29.403500000000001</v>
-      </c>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="48"/>
-    </row>
-    <row r="10" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="64">
-        <v>12.864000000000001</v>
-      </c>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="48"/>
-      <c r="X10" s="48"/>
-    </row>
-    <row r="11" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K11" s="63"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="48"/>
-      <c r="X11" s="48"/>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="48"/>
-      <c r="X12" s="48"/>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="25"/>
-      <c r="C13" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="60"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="48"/>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="25"/>
-      <c r="C14" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" s="62"/>
-      <c r="K14" s="61"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="48"/>
-      <c r="X14" s="48"/>
-    </row>
-    <row r="15" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="26"/>
-      <c r="C15" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="J15" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="K15" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="M15" s="48"/>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="17">
-        <v>59.885999999999996</v>
-      </c>
-      <c r="M16" s="48"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="17">
-        <v>64.88000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="17">
-        <v>46.448999999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="17">
-        <v>47.238</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="18">
-        <v>17.762999999999998</v>
+      <c r="C16" s="7">
+        <v>0.81</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.83666666666666656</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1.0725</v>
+      </c>
+      <c r="F16" s="15">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="G16" s="12">
+        <f t="shared" si="1"/>
+        <v>2.863833333333333</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="C3:F3"/>
+  <mergeCells count="4">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C7 C4:C6" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U87"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="34.5703125" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
-    <col min="12" max="12" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6290,65 +5901,36 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K1" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="M1" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="O1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="R2" s="7"/>
-      <c r="T2" t="s">
-        <v>68</v>
-      </c>
-      <c r="U2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>649</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>4.6224961479198773E-2</v>
+      </c>
+      <c r="G2">
+        <v>1.345</v>
+      </c>
+      <c r="H2">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>649</v>
@@ -6356,68 +5938,25 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
+      <c r="D3" s="38" t="s">
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F3">
-        <v>4.6224961479198773E-2</v>
+        <v>4.3143297380585519E-2</v>
       </c>
       <c r="G3">
-        <v>1.345</v>
+        <v>1.375</v>
       </c>
       <c r="H3">
-        <v>2.12</v>
-      </c>
-      <c r="I3">
-        <f>G3*ponderaciones!$C$10</f>
-        <v>1.0760000000000001</v>
-      </c>
-      <c r="J3">
-        <f>H3*ponderaciones!$C$10</f>
-        <v>1.6960000000000002</v>
-      </c>
-      <c r="K3">
-        <f>G3*ponderaciones!$D$10</f>
-        <v>1.345</v>
-      </c>
-      <c r="L3">
-        <f>H3*ponderaciones!$D$10</f>
-        <v>2.12</v>
-      </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M6" si="0">IF($A3=4,I3*1.3,IF($A3=16,I3*2,I3*1))</f>
-        <v>1.0760000000000001</v>
-      </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N6" si="1">IF($A3=4,J3*1.3,IF($A3=16,J3*2,J3*1))</f>
-        <v>1.6960000000000002</v>
-      </c>
-      <c r="O3">
-        <f t="shared" ref="O2:O65" si="2">IF($A3=4,K3*1.3,IF($A3=16,K3*2,K3*1))</f>
-        <v>1.345</v>
-      </c>
-      <c r="P3">
-        <f t="shared" ref="P2:P65" si="3">IF($A3=4,L3*1.3,IF($A3=16,L3*2,L3*1))</f>
-        <v>2.12</v>
-      </c>
-      <c r="S3" t="s">
-        <v>71</v>
-      </c>
-      <c r="T3">
-        <f>SUM(I3:I19)</f>
-        <v>18.732499999999998</v>
-      </c>
-      <c r="U3">
-        <f>SUM(J3:J19)</f>
-        <v>32.792999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>649</v>
@@ -6425,68 +5964,25 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
+      <c r="D4" s="38" t="s">
+        <v>10</v>
       </c>
       <c r="E4">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F4">
-        <v>4.3143297380585519E-2</v>
+        <v>3.0816640986132508E-2</v>
       </c>
       <c r="G4">
-        <v>1.375</v>
+        <v>2.395</v>
       </c>
       <c r="H4">
-        <v>2.54</v>
-      </c>
-      <c r="I4">
-        <f>G4*ponderaciones!$C$11</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J4">
-        <f>H4*ponderaciones!$C$11</f>
-        <v>2.032</v>
-      </c>
-      <c r="K4">
-        <f>G4*ponderaciones!$D$11</f>
-        <v>1.375</v>
-      </c>
-      <c r="L4">
-        <f>H4*ponderaciones!$D$11</f>
-        <v>2.54</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="1"/>
-        <v>2.032</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="2"/>
-        <v>1.375</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="3"/>
-        <v>2.54</v>
-      </c>
-      <c r="S4" t="s">
-        <v>70</v>
-      </c>
-      <c r="T4">
-        <f>SUM(K3:K19)</f>
-        <v>31.270999999999997</v>
-      </c>
-      <c r="U4">
-        <f>SUM(L3:L19)</f>
-        <v>55.686</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>649</v>
@@ -6494,68 +5990,25 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
+      <c r="D5" s="40" t="s">
+        <v>11</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F5">
-        <v>3.0816640986132508E-2</v>
+        <v>5.8551617873651769E-2</v>
       </c>
       <c r="G5">
-        <v>2.395</v>
+        <v>1.825</v>
       </c>
       <c r="H5">
-        <v>3.89</v>
-      </c>
-      <c r="I5">
-        <f>G5*ponderaciones!$C$12</f>
-        <v>1.1975</v>
-      </c>
-      <c r="J5">
-        <f>H5*ponderaciones!$C$12</f>
-        <v>1.9450000000000001</v>
-      </c>
-      <c r="K5">
-        <f>G5*ponderaciones!$D$12</f>
-        <v>2.395</v>
-      </c>
-      <c r="L5">
-        <f>H5*ponderaciones!$D$12</f>
-        <v>3.89</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="0"/>
-        <v>1.1975</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="1"/>
-        <v>1.9450000000000001</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="2"/>
-        <v>2.395</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="3"/>
-        <v>3.89</v>
-      </c>
-      <c r="S5" t="s">
-        <v>79</v>
-      </c>
-      <c r="T5">
-        <f>SUM(M3:M19)</f>
-        <v>22.83775</v>
-      </c>
-      <c r="U5">
-        <f>SUM(N3:N19)</f>
-        <v>39.860999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>649</v>
@@ -6564,67 +6017,24 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F6">
-        <v>5.8551617873651769E-2</v>
+        <v>3.2357473035439142E-2</v>
       </c>
       <c r="G6">
-        <v>1.825</v>
+        <v>3.6349999999999998</v>
       </c>
       <c r="H6">
-        <v>3.38</v>
-      </c>
-      <c r="I6">
-        <f>G6*ponderaciones!$C$13</f>
-        <v>0.54749999999999999</v>
-      </c>
-      <c r="J6">
-        <f>H6*ponderaciones!$C$13</f>
-        <v>1.014</v>
-      </c>
-      <c r="K6">
-        <f>G6*ponderaciones!$D$13</f>
-        <v>2.19</v>
-      </c>
-      <c r="L6">
-        <f>H6*ponderaciones!$D$13</f>
-        <v>4.056</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="0"/>
-        <v>0.54749999999999999</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="1"/>
-        <v>1.014</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="2"/>
-        <v>2.19</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="3"/>
-        <v>4.056</v>
-      </c>
-      <c r="S6" t="s">
-        <v>80</v>
-      </c>
-      <c r="T6">
-        <f>SUM(O3:O19)</f>
-        <v>33.785500000000006</v>
-      </c>
-      <c r="U6">
-        <f>SUM(P3:P19)</f>
-        <v>59.885999999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+        <v>5.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>649</v>
@@ -6632,57 +6042,25 @@
       <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
-        <v>12</v>
+      <c r="D7" s="37" t="s">
+        <v>13</v>
       </c>
       <c r="E7">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F7">
-        <v>3.2357473035439142E-2</v>
+        <v>2.9275808936825881E-2</v>
       </c>
       <c r="G7">
-        <v>3.6349999999999998</v>
+        <v>1.7250000000000001</v>
       </c>
       <c r="H7">
-        <v>5.72</v>
-      </c>
-      <c r="I7">
-        <f>G7*ponderaciones!$C$14</f>
-        <v>1.8174999999999999</v>
-      </c>
-      <c r="J7">
-        <f>H7*ponderaciones!$C$14</f>
-        <v>2.86</v>
-      </c>
-      <c r="K7">
-        <f>G7*ponderaciones!$D$14</f>
-        <v>3.6349999999999998</v>
-      </c>
-      <c r="L7">
-        <f>H7*ponderaciones!$D$14</f>
-        <v>5.72</v>
-      </c>
-      <c r="M7">
-        <f>IF($A7=4,I7*1.3,IF($A7=16,I7*2,I7*1))</f>
-        <v>2.3627500000000001</v>
-      </c>
-      <c r="N7">
-        <f>IF($A7=4,J7*1.3,IF($A7=16,J7*2,J7*1))</f>
-        <v>3.718</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="2"/>
-        <v>4.7255000000000003</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="3"/>
-        <v>7.4359999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>649</v>
@@ -6690,57 +6068,25 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
-        <v>13</v>
+      <c r="D8" s="39" t="s">
+        <v>14</v>
       </c>
       <c r="E8">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="F8">
-        <v>2.9275808936825881E-2</v>
+        <v>6.0092449922958403E-2</v>
       </c>
       <c r="G8">
-        <v>1.7250000000000001</v>
+        <v>1.26</v>
       </c>
       <c r="H8">
-        <v>3.33</v>
-      </c>
-      <c r="I8">
-        <f>G8*ponderaciones!$C$15</f>
-        <v>0.86250000000000004</v>
-      </c>
-      <c r="J8">
-        <f>H8*ponderaciones!$C$15</f>
-        <v>1.665</v>
-      </c>
-      <c r="K8">
-        <f>G8*ponderaciones!$D$15</f>
-        <v>1.7250000000000001</v>
-      </c>
-      <c r="L8">
-        <f>H8*ponderaciones!$D$15</f>
-        <v>3.33</v>
-      </c>
-      <c r="M8">
-        <f t="shared" ref="M8:M71" si="4">IF($A8=4,I8*1.3,IF($A8=16,I8*2,I8*1))</f>
-        <v>0.86250000000000004</v>
-      </c>
-      <c r="N8">
-        <f t="shared" ref="N8:N71" si="5">IF($A8=4,J8*1.3,IF($A8=16,J8*2,J8*1))</f>
-        <v>1.665</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="2"/>
-        <v>1.7250000000000001</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="3"/>
-        <v>3.33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>649</v>
@@ -6748,57 +6094,25 @@
       <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
-        <v>14</v>
+      <c r="D9" s="40" t="s">
+        <v>15</v>
       </c>
       <c r="E9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="F9">
-        <v>6.0092449922958403E-2</v>
+        <v>2.7734976887519261E-2</v>
       </c>
       <c r="G9">
-        <v>1.26</v>
+        <v>2.625</v>
       </c>
       <c r="H9">
-        <v>2.4</v>
-      </c>
-      <c r="I9">
-        <f>G9*ponderaciones!$C$16</f>
-        <v>0.378</v>
-      </c>
-      <c r="J9">
-        <f>H9*ponderaciones!$C$16</f>
-        <v>0.72</v>
-      </c>
-      <c r="K9">
-        <f>G9*ponderaciones!$D$16</f>
-        <v>1.26</v>
-      </c>
-      <c r="L9">
-        <f>H9*ponderaciones!$D$16</f>
-        <v>2.4</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="4"/>
-        <v>0.378</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="5"/>
-        <v>0.72</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="2"/>
-        <v>1.26</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="3"/>
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>649</v>
@@ -6806,57 +6120,25 @@
       <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" t="s">
-        <v>15</v>
+      <c r="D10" s="37" t="s">
+        <v>16</v>
       </c>
       <c r="E10">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F10">
-        <v>2.7734976887519261E-2</v>
+        <v>1.8489984591679508E-2</v>
       </c>
       <c r="G10">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="H10">
-        <v>3.74</v>
-      </c>
-      <c r="I10">
-        <f>G10*ponderaciones!$C$17</f>
-        <v>1.3125</v>
-      </c>
-      <c r="J10">
-        <f>H10*ponderaciones!$C$17</f>
-        <v>1.87</v>
-      </c>
-      <c r="K10">
-        <f>G10*ponderaciones!$D$17</f>
-        <v>2.625</v>
-      </c>
-      <c r="L10">
-        <f>H10*ponderaciones!$D$17</f>
-        <v>3.74</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="4"/>
-        <v>1.3125</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="5"/>
-        <v>1.87</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="2"/>
-        <v>2.625</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="3"/>
-        <v>3.74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>649</v>
@@ -6864,57 +6146,25 @@
       <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="D11" t="s">
-        <v>16</v>
+      <c r="D11" s="40" t="s">
+        <v>17</v>
       </c>
       <c r="E11">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F11">
-        <v>1.8489984591679508E-2</v>
+        <v>2.619414483821263E-2</v>
       </c>
       <c r="G11">
-        <v>1.45</v>
+        <v>1.325</v>
       </c>
       <c r="H11">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="I11">
-        <f>G11*ponderaciones!$C$18</f>
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="J11">
-        <f>H11*ponderaciones!$C$18</f>
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="K11">
-        <f>G11*ponderaciones!$D$18</f>
-        <v>1.45</v>
-      </c>
-      <c r="L11">
-        <f>H11*ponderaciones!$D$18</f>
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="4"/>
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="5"/>
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="2"/>
-        <v>1.45</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="3"/>
-        <v>2.2400000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>649</v>
@@ -6922,57 +6172,25 @@
       <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="D12" t="s">
-        <v>17</v>
+      <c r="D12" s="37" t="s">
+        <v>18</v>
       </c>
       <c r="E12">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F12">
-        <v>2.619414483821263E-2</v>
+        <v>3.3898305084745763E-2</v>
       </c>
       <c r="G12">
-        <v>1.325</v>
+        <v>2.1349999999999998</v>
       </c>
       <c r="H12">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I12">
-        <f>G12*ponderaciones!$C$19</f>
-        <v>0.66249999999999998</v>
-      </c>
-      <c r="J12">
-        <f>H12*ponderaciones!$C$19</f>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="K12">
-        <f>G12*ponderaciones!$D$19</f>
-        <v>1.325</v>
-      </c>
-      <c r="L12">
-        <f>H12*ponderaciones!$D$19</f>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="4"/>
-        <v>0.66249999999999998</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="5"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="2"/>
-        <v>1.325</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="3"/>
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>649</v>
@@ -6981,56 +6199,24 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E13">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F13">
-        <v>3.3898305084745763E-2</v>
+        <v>4.7765793528505393E-2</v>
       </c>
       <c r="G13">
-        <v>2.1349999999999998</v>
+        <v>1.655</v>
       </c>
       <c r="H13">
-        <v>3.59</v>
-      </c>
-      <c r="I13">
-        <f>G13*ponderaciones!$C$20</f>
-        <v>1.708</v>
-      </c>
-      <c r="J13">
-        <f>H13*ponderaciones!$C$20</f>
-        <v>2.8719999999999999</v>
-      </c>
-      <c r="K13">
-        <f>G13*ponderaciones!$D$20</f>
-        <v>2.1349999999999998</v>
-      </c>
-      <c r="L13">
-        <f>H13*ponderaciones!$D$20</f>
-        <v>3.59</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="4"/>
-        <v>1.708</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="5"/>
-        <v>2.8719999999999999</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="2"/>
-        <v>2.1349999999999998</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="3"/>
-        <v>3.59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>649</v>
@@ -7038,57 +6224,25 @@
       <c r="C14" t="s">
         <v>7</v>
       </c>
-      <c r="D14" t="s">
-        <v>19</v>
+      <c r="D14" s="39" t="s">
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F14">
-        <v>4.7765793528505393E-2</v>
+        <v>3.3898305084745763E-2</v>
       </c>
       <c r="G14">
-        <v>1.655</v>
+        <v>1.5649999999999999</v>
       </c>
       <c r="H14">
-        <v>3.19</v>
-      </c>
-      <c r="I14">
-        <f>G14*ponderaciones!$C$21</f>
-        <v>0.82750000000000001</v>
-      </c>
-      <c r="J14">
-        <f>H14*ponderaciones!$C$21</f>
-        <v>1.595</v>
-      </c>
-      <c r="K14">
-        <f>G14*ponderaciones!$D$21</f>
-        <v>1.655</v>
-      </c>
-      <c r="L14">
-        <f>H14*ponderaciones!$D$21</f>
-        <v>3.19</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="4"/>
-        <v>0.82750000000000001</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="5"/>
-        <v>1.595</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="2"/>
-        <v>1.655</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="3"/>
-        <v>3.19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>649</v>
@@ -7096,57 +6250,25 @@
       <c r="C15" t="s">
         <v>7</v>
       </c>
-      <c r="D15" t="s">
-        <v>20</v>
+      <c r="D15" s="37" t="s">
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F15">
-        <v>3.3898305084745763E-2</v>
+        <v>3.2357473035439142E-2</v>
       </c>
       <c r="G15">
-        <v>1.5649999999999999</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="H15">
-        <v>2.88</v>
-      </c>
-      <c r="I15">
-        <f>G15*ponderaciones!$C$22</f>
-        <v>0.78249999999999997</v>
-      </c>
-      <c r="J15">
-        <f>H15*ponderaciones!$C$22</f>
-        <v>1.44</v>
-      </c>
-      <c r="K15">
-        <f>G15*ponderaciones!$D$22</f>
-        <v>1.5649999999999999</v>
-      </c>
-      <c r="L15">
-        <f>H15*ponderaciones!$D$22</f>
-        <v>2.88</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="4"/>
-        <v>0.78249999999999997</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="5"/>
-        <v>1.44</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="2"/>
-        <v>1.5649999999999999</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="3"/>
-        <v>2.88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>649</v>
@@ -7154,57 +6276,25 @@
       <c r="C16" t="s">
         <v>7</v>
       </c>
-      <c r="D16" t="s">
-        <v>21</v>
+      <c r="D16" s="39" t="s">
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="F16">
-        <v>3.2357473035439142E-2</v>
+        <v>9.5531587057010786E-2</v>
       </c>
       <c r="G16">
-        <v>2.0499999999999998</v>
+        <v>1.36</v>
       </c>
       <c r="H16">
-        <v>3.12</v>
-      </c>
-      <c r="I16">
-        <f>G16*ponderaciones!$C$23</f>
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="J16">
-        <f>H16*ponderaciones!$C$23</f>
-        <v>1.56</v>
-      </c>
-      <c r="K16">
-        <f>G16*ponderaciones!$D$23</f>
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="L16">
-        <f>H16*ponderaciones!$D$23</f>
-        <v>3.12</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="4"/>
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="5"/>
-        <v>1.56</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="2"/>
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="3"/>
-        <v>3.12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>649</v>
@@ -7212,173 +6302,77 @@
       <c r="C17" t="s">
         <v>7</v>
       </c>
-      <c r="D17" t="s">
-        <v>22</v>
+      <c r="D17" s="40" t="s">
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="F17">
-        <v>9.5531587057010786E-2</v>
+        <v>6.4714946070878271E-2</v>
       </c>
       <c r="G17">
-        <v>1.36</v>
+        <v>1.4850000000000001</v>
       </c>
       <c r="H17">
-        <v>3.33</v>
-      </c>
-      <c r="I17">
-        <f>G17*ponderaciones!$C$24</f>
-        <v>0.40800000000000003</v>
-      </c>
-      <c r="J17">
-        <f>H17*ponderaciones!$C$24</f>
-        <v>0.999</v>
-      </c>
-      <c r="K17">
-        <f>G17*ponderaciones!$D$24</f>
-        <v>1.6320000000000001</v>
-      </c>
-      <c r="L17">
-        <f>H17*ponderaciones!$D$24</f>
-        <v>3.996</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="4"/>
-        <v>0.40800000000000003</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="5"/>
-        <v>0.999</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="2"/>
-        <v>1.6320000000000001</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="3"/>
-        <v>3.996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>15</v>
-      </c>
-      <c r="B18">
-        <v>649</v>
-      </c>
-      <c r="C18" t="s">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="42">
+        <v>16</v>
+      </c>
+      <c r="B18" s="21">
+        <v>649</v>
+      </c>
+      <c r="C18" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18">
-        <v>42</v>
-      </c>
-      <c r="F18">
-        <v>6.4714946070878271E-2</v>
-      </c>
-      <c r="G18">
-        <v>1.4850000000000001</v>
-      </c>
-      <c r="H18">
-        <v>4.09</v>
-      </c>
-      <c r="I18">
-        <f>G18*ponderaciones!$C$25</f>
-        <v>0.74250000000000005</v>
-      </c>
-      <c r="J18">
-        <f>H18*ponderaciones!$C$25</f>
-        <v>2.0449999999999999</v>
-      </c>
-      <c r="K18">
-        <f>G18*ponderaciones!$D$25</f>
-        <v>1.4850000000000001</v>
-      </c>
-      <c r="L18">
-        <f>H18*ponderaciones!$D$25</f>
-        <v>4.09</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="4"/>
-        <v>0.74250000000000005</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="5"/>
-        <v>2.0449999999999999</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="2"/>
-        <v>1.4850000000000001</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="3"/>
-        <v>4.09</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>16</v>
+      <c r="D18" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="21">
+        <v>21</v>
+      </c>
+      <c r="F18" s="21">
+        <v>3.2357473035439142E-2</v>
+      </c>
+      <c r="G18" s="21">
+        <v>3.56</v>
+      </c>
+      <c r="H18" s="21">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="41">
+        <v>0</v>
       </c>
       <c r="B19">
-        <v>649</v>
+        <v>363</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>8</v>
       </c>
       <c r="E19">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F19">
-        <v>3.2357473035439142E-2</v>
+        <v>4.6831955922865022E-2</v>
       </c>
       <c r="G19">
-        <v>3.56</v>
+        <v>1.405</v>
       </c>
       <c r="H19">
-        <v>6.21</v>
-      </c>
-      <c r="I19">
-        <f>G19*ponderaciones!$C$26</f>
-        <v>3.56</v>
-      </c>
-      <c r="J19">
-        <f>H19*ponderaciones!$C$26</f>
-        <v>6.21</v>
-      </c>
-      <c r="K19">
-        <f>G19*ponderaciones!$D$26</f>
-        <v>1.4240000000000002</v>
-      </c>
-      <c r="L19">
-        <f>H19*ponderaciones!$D$26</f>
-        <v>2.484</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="4"/>
-        <v>7.12</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="5"/>
-        <v>12.42</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="2"/>
-        <v>2.8480000000000003</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="3"/>
-        <v>4.968</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20">
         <v>363</v>
@@ -7386,68 +6380,25 @@
       <c r="C20" t="s">
         <v>26</v>
       </c>
-      <c r="D20" t="s">
-        <v>8</v>
+      <c r="D20" s="38" t="s">
+        <v>9</v>
       </c>
       <c r="E20">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F20">
-        <v>4.6831955922865022E-2</v>
+        <v>4.1322314049586778E-2</v>
       </c>
       <c r="G20">
-        <v>1.405</v>
+        <v>1.7224999999999999</v>
       </c>
       <c r="H20">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="I20">
-        <f>G20*ponderaciones!$C$10</f>
-        <v>1.1240000000000001</v>
-      </c>
-      <c r="J20">
-        <f>H20*ponderaciones!$C$10</f>
-        <v>1.8239999999999998</v>
-      </c>
-      <c r="K20">
-        <f>G20*ponderaciones!$D$10</f>
-        <v>1.405</v>
-      </c>
-      <c r="L20">
-        <f>H20*ponderaciones!$D$10</f>
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="4"/>
-        <v>1.1240000000000001</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="5"/>
-        <v>1.8239999999999998</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="2"/>
-        <v>1.405</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="3"/>
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="S20" t="s">
-        <v>71</v>
-      </c>
-      <c r="T20">
-        <f>SUM(I20:I36)</f>
-        <v>21.059000000000001</v>
-      </c>
-      <c r="U20">
-        <f>SUM(J20:J36)</f>
-        <v>34.670000000000009</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21">
         <v>363</v>
@@ -7455,68 +6406,25 @@
       <c r="C21" t="s">
         <v>26</v>
       </c>
-      <c r="D21" t="s">
-        <v>9</v>
+      <c r="D21" s="38" t="s">
+        <v>10</v>
       </c>
       <c r="E21">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F21">
-        <v>4.1322314049586778E-2</v>
+        <v>4.9586776859504127E-2</v>
       </c>
       <c r="G21">
-        <v>1.7224999999999999</v>
+        <v>2.3774999999999999</v>
       </c>
       <c r="H21">
-        <v>3.12</v>
-      </c>
-      <c r="I21">
-        <f>G21*ponderaciones!$C$11</f>
-        <v>1.3780000000000001</v>
-      </c>
-      <c r="J21">
-        <f>H21*ponderaciones!$C$11</f>
-        <v>2.4960000000000004</v>
-      </c>
-      <c r="K21">
-        <f>G21*ponderaciones!$D$11</f>
-        <v>1.7224999999999999</v>
-      </c>
-      <c r="L21">
-        <f>H21*ponderaciones!$D$11</f>
-        <v>3.12</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="4"/>
-        <v>1.3780000000000001</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="5"/>
-        <v>2.4960000000000004</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="2"/>
-        <v>1.7224999999999999</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="3"/>
-        <v>3.12</v>
-      </c>
-      <c r="S21" t="s">
-        <v>70</v>
-      </c>
-      <c r="T21">
-        <f>SUM(K20:K36)</f>
-        <v>36.294000000000004</v>
-      </c>
-      <c r="U21">
-        <f>SUM(L20:L36)</f>
-        <v>60.984000000000009</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+        <v>4.63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B22">
         <v>363</v>
@@ -7524,68 +6432,25 @@
       <c r="C22" t="s">
         <v>26</v>
       </c>
-      <c r="D22" t="s">
-        <v>10</v>
+      <c r="D22" s="40" t="s">
+        <v>11</v>
       </c>
       <c r="E22">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F22">
-        <v>4.9586776859504127E-2</v>
+        <v>3.5812672176308541E-2</v>
       </c>
       <c r="G22">
-        <v>2.3774999999999999</v>
+        <v>2.1749999999999998</v>
       </c>
       <c r="H22">
-        <v>4.63</v>
-      </c>
-      <c r="I22">
-        <f>G22*ponderaciones!$C$12</f>
-        <v>1.18875</v>
-      </c>
-      <c r="J22">
-        <f>H22*ponderaciones!$C$12</f>
-        <v>2.3149999999999999</v>
-      </c>
-      <c r="K22">
-        <f>G22*ponderaciones!$D$12</f>
-        <v>2.3774999999999999</v>
-      </c>
-      <c r="L22">
-        <f>H22*ponderaciones!$D$12</f>
-        <v>4.63</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="4"/>
-        <v>1.18875</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="5"/>
-        <v>2.3149999999999999</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="2"/>
-        <v>2.3774999999999999</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="3"/>
-        <v>4.63</v>
-      </c>
-      <c r="S22" t="s">
-        <v>79</v>
-      </c>
-      <c r="T22">
-        <f>SUM(M20:M36)</f>
-        <v>25.203000000000003</v>
-      </c>
-      <c r="U22">
-        <f>SUM(N20:N36)</f>
-        <v>40.594000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B23">
         <v>363</v>
@@ -7594,67 +6459,24 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E23">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F23">
-        <v>3.5812672176308541E-2</v>
+        <v>4.1322314049586778E-2</v>
       </c>
       <c r="G23">
-        <v>2.1749999999999998</v>
+        <v>4.26</v>
       </c>
       <c r="H23">
-        <v>3.25</v>
-      </c>
-      <c r="I23">
-        <f>G23*ponderaciones!$C$13</f>
-        <v>0.65249999999999997</v>
-      </c>
-      <c r="J23">
-        <f>H23*ponderaciones!$C$13</f>
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="K23">
-        <f>G23*ponderaciones!$D$13</f>
-        <v>2.61</v>
-      </c>
-      <c r="L23">
-        <f>H23*ponderaciones!$D$13</f>
-        <v>3.9</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="4"/>
-        <v>0.65249999999999997</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="5"/>
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="2"/>
-        <v>2.61</v>
-      </c>
-      <c r="P23">
-        <f t="shared" si="3"/>
-        <v>3.9</v>
-      </c>
-      <c r="S23" t="s">
-        <v>80</v>
-      </c>
-      <c r="T23">
-        <f>SUM(O20:O36)</f>
-        <v>38.974000000000004</v>
-      </c>
-      <c r="U23">
-        <f>SUM(P20:P36)</f>
-        <v>64.88000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+        <v>6.36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24">
         <v>363</v>
@@ -7662,57 +6484,25 @@
       <c r="C24" t="s">
         <v>26</v>
       </c>
-      <c r="D24" t="s">
-        <v>12</v>
+      <c r="D24" s="37" t="s">
+        <v>13</v>
       </c>
       <c r="E24">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F24">
-        <v>4.1322314049586778E-2</v>
+        <v>3.8567493112947659E-2</v>
       </c>
       <c r="G24">
-        <v>4.26</v>
+        <v>1.8725000000000001</v>
       </c>
       <c r="H24">
-        <v>6.36</v>
-      </c>
-      <c r="I24">
-        <f>G24*ponderaciones!$C$14</f>
-        <v>2.13</v>
-      </c>
-      <c r="J24">
-        <f>H24*ponderaciones!$C$14</f>
-        <v>3.18</v>
-      </c>
-      <c r="K24">
-        <f>G24*ponderaciones!$D$14</f>
-        <v>4.26</v>
-      </c>
-      <c r="L24">
-        <f>H24*ponderaciones!$D$14</f>
-        <v>6.36</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="4"/>
-        <v>2.7690000000000001</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="5"/>
-        <v>4.1340000000000003</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="2"/>
-        <v>5.5380000000000003</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="3"/>
-        <v>8.2680000000000007</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25">
         <v>363</v>
@@ -7720,57 +6510,25 @@
       <c r="C25" t="s">
         <v>26</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25">
         <v>13</v>
       </c>
-      <c r="E25">
-        <v>14</v>
-      </c>
       <c r="F25">
-        <v>3.8567493112947659E-2</v>
+        <v>3.5812672176308541E-2</v>
       </c>
       <c r="G25">
-        <v>1.8725000000000001</v>
+        <v>1.6950000000000001</v>
       </c>
       <c r="H25">
-        <v>3.3</v>
-      </c>
-      <c r="I25">
-        <f>G25*ponderaciones!$C$15</f>
-        <v>0.93625000000000003</v>
-      </c>
-      <c r="J25">
-        <f>H25*ponderaciones!$C$15</f>
-        <v>1.65</v>
-      </c>
-      <c r="K25">
-        <f>G25*ponderaciones!$D$15</f>
-        <v>1.8725000000000001</v>
-      </c>
-      <c r="L25">
-        <f>H25*ponderaciones!$D$15</f>
-        <v>3.3</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="4"/>
-        <v>0.93625000000000003</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="5"/>
-        <v>1.65</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="2"/>
-        <v>1.8725000000000001</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="3"/>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B26">
         <v>363</v>
@@ -7778,8 +6536,8 @@
       <c r="C26" t="s">
         <v>26</v>
       </c>
-      <c r="D26" t="s">
-        <v>14</v>
+      <c r="D26" s="40" t="s">
+        <v>15</v>
       </c>
       <c r="E26">
         <v>13</v>
@@ -7788,47 +6546,15 @@
         <v>3.5812672176308541E-2</v>
       </c>
       <c r="G26">
-        <v>1.6950000000000001</v>
+        <v>3.03</v>
       </c>
       <c r="H26">
-        <v>2.68</v>
-      </c>
-      <c r="I26">
-        <f>G26*ponderaciones!$C$16</f>
-        <v>0.50849999999999995</v>
-      </c>
-      <c r="J26">
-        <f>H26*ponderaciones!$C$16</f>
-        <v>0.80400000000000005</v>
-      </c>
-      <c r="K26">
-        <f>G26*ponderaciones!$D$16</f>
-        <v>1.6950000000000001</v>
-      </c>
-      <c r="L26">
-        <f>H26*ponderaciones!$D$16</f>
-        <v>2.68</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="4"/>
-        <v>0.50849999999999995</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="5"/>
-        <v>0.80400000000000005</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="2"/>
-        <v>1.6950000000000001</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="3"/>
-        <v>2.68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B27">
         <v>363</v>
@@ -7836,57 +6562,25 @@
       <c r="C27" t="s">
         <v>26</v>
       </c>
-      <c r="D27" t="s">
-        <v>15</v>
+      <c r="D27" s="37" t="s">
+        <v>16</v>
       </c>
       <c r="E27">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F27">
-        <v>3.5812672176308541E-2</v>
+        <v>3.8567493112947659E-2</v>
       </c>
       <c r="G27">
-        <v>3.03</v>
+        <v>1.2775000000000001</v>
       </c>
       <c r="H27">
-        <v>4.41</v>
-      </c>
-      <c r="I27">
-        <f>G27*ponderaciones!$C$17</f>
-        <v>1.5149999999999999</v>
-      </c>
-      <c r="J27">
-        <f>H27*ponderaciones!$C$17</f>
-        <v>2.2050000000000001</v>
-      </c>
-      <c r="K27">
-        <f>G27*ponderaciones!$D$17</f>
-        <v>3.03</v>
-      </c>
-      <c r="L27">
-        <f>H27*ponderaciones!$D$17</f>
-        <v>4.41</v>
-      </c>
-      <c r="M27">
-        <f t="shared" si="4"/>
-        <v>1.5149999999999999</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="5"/>
-        <v>2.2050000000000001</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="2"/>
-        <v>3.03</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="3"/>
-        <v>4.41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B28">
         <v>363</v>
@@ -7894,57 +6588,25 @@
       <c r="C28" t="s">
         <v>26</v>
       </c>
-      <c r="D28" t="s">
-        <v>16</v>
+      <c r="D28" s="40" t="s">
+        <v>17</v>
       </c>
       <c r="E28">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F28">
-        <v>3.8567493112947659E-2</v>
+        <v>3.03030303030303E-2</v>
       </c>
       <c r="G28">
-        <v>1.2775000000000001</v>
+        <v>1.3625</v>
       </c>
       <c r="H28">
-        <v>2.62</v>
-      </c>
-      <c r="I28">
-        <f>G28*ponderaciones!$C$18</f>
-        <v>0.63875000000000004</v>
-      </c>
-      <c r="J28">
-        <f>H28*ponderaciones!$C$18</f>
-        <v>1.31</v>
-      </c>
-      <c r="K28">
-        <f>G28*ponderaciones!$D$18</f>
-        <v>1.2775000000000001</v>
-      </c>
-      <c r="L28">
-        <f>H28*ponderaciones!$D$18</f>
-        <v>2.62</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="4"/>
-        <v>0.63875000000000004</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="5"/>
-        <v>1.31</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="2"/>
-        <v>1.2775000000000001</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="3"/>
-        <v>2.62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B29">
         <v>363</v>
@@ -7952,57 +6614,25 @@
       <c r="C29" t="s">
         <v>26</v>
       </c>
-      <c r="D29" t="s">
-        <v>17</v>
+      <c r="D29" s="37" t="s">
+        <v>18</v>
       </c>
       <c r="E29">
+        <v>15</v>
+      </c>
+      <c r="F29">
+        <v>4.1322314049586778E-2</v>
+      </c>
+      <c r="G29">
+        <v>2.5350000000000001</v>
+      </c>
+      <c r="H29">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>11</v>
-      </c>
-      <c r="F29">
-        <v>3.03030303030303E-2</v>
-      </c>
-      <c r="G29">
-        <v>1.3625</v>
-      </c>
-      <c r="H29">
-        <v>2.11</v>
-      </c>
-      <c r="I29">
-        <f>G29*ponderaciones!$C$19</f>
-        <v>0.68125000000000002</v>
-      </c>
-      <c r="J29">
-        <f>H29*ponderaciones!$C$19</f>
-        <v>1.0549999999999999</v>
-      </c>
-      <c r="K29">
-        <f>G29*ponderaciones!$D$19</f>
-        <v>1.3625</v>
-      </c>
-      <c r="L29">
-        <f>H29*ponderaciones!$D$19</f>
-        <v>2.11</v>
-      </c>
-      <c r="M29">
-        <f t="shared" si="4"/>
-        <v>0.68125000000000002</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="5"/>
-        <v>1.0549999999999999</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="2"/>
-        <v>1.3625</v>
-      </c>
-      <c r="P29">
-        <f t="shared" si="3"/>
-        <v>2.11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>10</v>
       </c>
       <c r="B30">
         <v>363</v>
@@ -8011,7 +6641,7 @@
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E30">
         <v>15</v>
@@ -8020,47 +6650,15 @@
         <v>4.1322314049586778E-2</v>
       </c>
       <c r="G30">
-        <v>2.5350000000000001</v>
+        <v>2.0049999999999999</v>
       </c>
       <c r="H30">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="I30">
-        <f>G30*ponderaciones!$C$20</f>
-        <v>2.028</v>
-      </c>
-      <c r="J30">
-        <f>H30*ponderaciones!$C$20</f>
-        <v>3.3520000000000003</v>
-      </c>
-      <c r="K30">
-        <f>G30*ponderaciones!$D$20</f>
-        <v>2.5350000000000001</v>
-      </c>
-      <c r="L30">
-        <f>H30*ponderaciones!$D$20</f>
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="M30">
-        <f t="shared" si="4"/>
-        <v>2.028</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="5"/>
-        <v>3.3520000000000003</v>
-      </c>
-      <c r="O30">
-        <f t="shared" si="2"/>
-        <v>2.5350000000000001</v>
-      </c>
-      <c r="P30">
-        <f t="shared" si="3"/>
-        <v>4.1900000000000004</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B31">
         <v>363</v>
@@ -8068,57 +6666,25 @@
       <c r="C31" t="s">
         <v>26</v>
       </c>
-      <c r="D31" t="s">
-        <v>19</v>
+      <c r="D31" s="39" t="s">
+        <v>20</v>
       </c>
       <c r="E31">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F31">
-        <v>4.1322314049586778E-2</v>
+        <v>3.5812672176308541E-2</v>
       </c>
       <c r="G31">
-        <v>2.0049999999999999</v>
+        <v>1.8525</v>
       </c>
       <c r="H31">
         <v>3.45</v>
       </c>
-      <c r="I31">
-        <f>G31*ponderaciones!$C$21</f>
-        <v>1.0024999999999999</v>
-      </c>
-      <c r="J31">
-        <f>H31*ponderaciones!$C$21</f>
-        <v>1.7250000000000001</v>
-      </c>
-      <c r="K31">
-        <f>G31*ponderaciones!$D$21</f>
-        <v>2.0049999999999999</v>
-      </c>
-      <c r="L31">
-        <f>H31*ponderaciones!$D$21</f>
-        <v>3.45</v>
-      </c>
-      <c r="M31">
-        <f t="shared" si="4"/>
-        <v>1.0024999999999999</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="5"/>
-        <v>1.7250000000000001</v>
-      </c>
-      <c r="O31">
-        <f t="shared" si="2"/>
-        <v>2.0049999999999999</v>
-      </c>
-      <c r="P31">
-        <f t="shared" si="3"/>
-        <v>3.45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B32">
         <v>363</v>
@@ -8126,57 +6692,25 @@
       <c r="C32" t="s">
         <v>26</v>
       </c>
-      <c r="D32" t="s">
-        <v>20</v>
+      <c r="D32" s="37" t="s">
+        <v>21</v>
       </c>
       <c r="E32">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F32">
-        <v>3.5812672176308541E-2</v>
+        <v>4.4077134986225897E-2</v>
       </c>
       <c r="G32">
-        <v>1.8525</v>
+        <v>2.54</v>
       </c>
       <c r="H32">
-        <v>3.45</v>
-      </c>
-      <c r="I32">
-        <f>G32*ponderaciones!$C$22</f>
-        <v>0.92625000000000002</v>
-      </c>
-      <c r="J32">
-        <f>H32*ponderaciones!$C$22</f>
-        <v>1.7250000000000001</v>
-      </c>
-      <c r="K32">
-        <f>G32*ponderaciones!$D$22</f>
-        <v>1.8525</v>
-      </c>
-      <c r="L32">
-        <f>H32*ponderaciones!$D$22</f>
-        <v>3.45</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="4"/>
-        <v>0.92625000000000002</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="5"/>
-        <v>1.7250000000000001</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="2"/>
-        <v>1.8525</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="3"/>
-        <v>3.45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B33">
         <v>363</v>
@@ -8184,57 +6718,25 @@
       <c r="C33" t="s">
         <v>26</v>
       </c>
-      <c r="D33" t="s">
-        <v>21</v>
+      <c r="D33" s="39" t="s">
+        <v>22</v>
       </c>
       <c r="E33">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F33">
-        <v>4.4077134986225897E-2</v>
+        <v>4.6831955922865022E-2</v>
       </c>
       <c r="G33">
-        <v>2.54</v>
+        <v>1.9975000000000001</v>
       </c>
       <c r="H33">
-        <v>4.71</v>
-      </c>
-      <c r="I33">
-        <f>G33*ponderaciones!$C$23</f>
-        <v>1.27</v>
-      </c>
-      <c r="J33">
-        <f>H33*ponderaciones!$C$23</f>
-        <v>2.355</v>
-      </c>
-      <c r="K33">
-        <f>G33*ponderaciones!$D$23</f>
-        <v>2.54</v>
-      </c>
-      <c r="L33">
-        <f>H33*ponderaciones!$D$23</f>
-        <v>4.71</v>
-      </c>
-      <c r="M33">
-        <f t="shared" si="4"/>
-        <v>1.27</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="5"/>
-        <v>2.355</v>
-      </c>
-      <c r="O33">
-        <f t="shared" si="2"/>
-        <v>2.54</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="3"/>
-        <v>4.71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B34">
         <v>363</v>
@@ -8242,173 +6744,77 @@
       <c r="C34" t="s">
         <v>26</v>
       </c>
-      <c r="D34" t="s">
-        <v>22</v>
+      <c r="D34" s="40" t="s">
+        <v>23</v>
       </c>
       <c r="E34">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F34">
-        <v>4.6831955922865022E-2</v>
+        <v>4.4077134986225897E-2</v>
       </c>
       <c r="G34">
-        <v>1.9975000000000001</v>
+        <v>1.95</v>
       </c>
       <c r="H34">
-        <v>3.88</v>
-      </c>
-      <c r="I34">
-        <f>G34*ponderaciones!$C$24</f>
-        <v>0.59924999999999995</v>
-      </c>
-      <c r="J34">
-        <f>H34*ponderaciones!$C$24</f>
-        <v>1.1639999999999999</v>
-      </c>
-      <c r="K34">
-        <f>G34*ponderaciones!$D$24</f>
-        <v>2.3969999999999998</v>
-      </c>
-      <c r="L34">
-        <f>H34*ponderaciones!$D$24</f>
-        <v>4.6559999999999997</v>
-      </c>
-      <c r="M34">
-        <f t="shared" si="4"/>
-        <v>0.59924999999999995</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="5"/>
-        <v>1.1639999999999999</v>
-      </c>
-      <c r="O34">
-        <f t="shared" si="2"/>
-        <v>2.3969999999999998</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="3"/>
-        <v>4.6559999999999997</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>15</v>
-      </c>
-      <c r="B35">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="42">
+        <v>16</v>
+      </c>
+      <c r="B35" s="21">
         <v>363</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="21">
+        <v>19</v>
+      </c>
+      <c r="F35" s="21">
+        <v>5.2341597796143252E-2</v>
+      </c>
+      <c r="G35" s="21">
+        <v>3.5049999999999999</v>
+      </c>
+      <c r="H35" s="21">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="41">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>1012</v>
+      </c>
+      <c r="C36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36">
         <v>23</v>
       </c>
-      <c r="E35">
-        <v>16</v>
-      </c>
-      <c r="F35">
-        <v>4.4077134986225897E-2</v>
-      </c>
-      <c r="G35">
-        <v>1.95</v>
-      </c>
-      <c r="H35">
-        <v>3.13</v>
-      </c>
-      <c r="I35">
-        <f>G35*ponderaciones!$C$25</f>
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="J35">
-        <f>H35*ponderaciones!$C$25</f>
-        <v>1.5649999999999999</v>
-      </c>
-      <c r="K35">
-        <f>G35*ponderaciones!$D$25</f>
-        <v>1.95</v>
-      </c>
-      <c r="L35">
-        <f>H35*ponderaciones!$D$25</f>
-        <v>3.13</v>
-      </c>
-      <c r="M35">
-        <f t="shared" si="4"/>
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="5"/>
-        <v>1.5649999999999999</v>
-      </c>
-      <c r="O35">
-        <f t="shared" si="2"/>
-        <v>1.95</v>
-      </c>
-      <c r="P35">
-        <f t="shared" si="3"/>
-        <v>3.13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>16</v>
-      </c>
-      <c r="B36">
-        <v>363</v>
-      </c>
-      <c r="C36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>19</v>
-      </c>
       <c r="F36">
-        <v>5.2341597796143252E-2</v>
+        <v>2.2727272727272731E-2</v>
       </c>
       <c r="G36">
-        <v>3.5049999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="H36">
-        <v>4.97</v>
-      </c>
-      <c r="I36">
-        <f>G36*ponderaciones!$C$26</f>
-        <v>3.5049999999999999</v>
-      </c>
-      <c r="J36">
-        <f>H36*ponderaciones!$C$26</f>
-        <v>4.97</v>
-      </c>
-      <c r="K36">
-        <f>G36*ponderaciones!$D$26</f>
-        <v>1.4020000000000001</v>
-      </c>
-      <c r="L36">
-        <f>H36*ponderaciones!$D$26</f>
-        <v>1.988</v>
-      </c>
-      <c r="M36">
-        <f t="shared" si="4"/>
-        <v>7.01</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="5"/>
-        <v>9.94</v>
-      </c>
-      <c r="O36">
-        <f t="shared" si="2"/>
-        <v>2.8040000000000003</v>
-      </c>
-      <c r="P36">
-        <f t="shared" si="3"/>
-        <v>3.976</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B37">
         <v>1012</v>
@@ -8416,68 +6822,25 @@
       <c r="C37" t="s">
         <v>28</v>
       </c>
-      <c r="D37" t="s">
-        <v>8</v>
+      <c r="D37" s="38" t="s">
+        <v>9</v>
       </c>
       <c r="E37">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="F37">
-        <v>2.2727272727272731E-2</v>
+        <v>4.7430830039525688E-2</v>
       </c>
       <c r="G37">
-        <v>0.97</v>
+        <v>0.97499999999999987</v>
       </c>
       <c r="H37">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="I37">
-        <f>G37*ponderaciones!$C$10</f>
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="J37">
-        <f>H37*ponderaciones!$C$10</f>
-        <v>1.9600000000000002</v>
-      </c>
-      <c r="K37">
-        <f>G37*ponderaciones!$D$10</f>
-        <v>0.97</v>
-      </c>
-      <c r="L37">
-        <f>H37*ponderaciones!$D$10</f>
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="M37">
-        <f t="shared" si="4"/>
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="N37">
-        <f t="shared" si="5"/>
-        <v>1.9600000000000002</v>
-      </c>
-      <c r="O37">
-        <f t="shared" si="2"/>
-        <v>0.97</v>
-      </c>
-      <c r="P37">
-        <f t="shared" si="3"/>
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="S37" t="s">
-        <v>71</v>
-      </c>
-      <c r="T37">
-        <f>SUM(I37:I53)</f>
-        <v>13.178125000000003</v>
-      </c>
-      <c r="U37">
-        <f>SUM(J37:J53)</f>
-        <v>25.766999999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B38">
         <v>1012</v>
@@ -8485,68 +6848,25 @@
       <c r="C38" t="s">
         <v>28</v>
       </c>
-      <c r="D38" t="s">
-        <v>9</v>
+      <c r="D38" s="38" t="s">
+        <v>10</v>
       </c>
       <c r="E38">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F38">
-        <v>4.7430830039525688E-2</v>
+        <v>3.0632411067193679E-2</v>
       </c>
       <c r="G38">
-        <v>0.97499999999999987</v>
+        <v>1.5449999999999999</v>
       </c>
       <c r="H38">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="I38">
-        <f>G38*ponderaciones!$C$11</f>
-        <v>0.77999999999999992</v>
-      </c>
-      <c r="J38">
-        <f>H38*ponderaciones!$C$11</f>
-        <v>1.6079999999999999</v>
-      </c>
-      <c r="K38">
-        <f>G38*ponderaciones!$D$11</f>
-        <v>0.97499999999999987</v>
-      </c>
-      <c r="L38">
-        <f>H38*ponderaciones!$D$11</f>
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="M38">
-        <f t="shared" si="4"/>
-        <v>0.77999999999999992</v>
-      </c>
-      <c r="N38">
-        <f t="shared" si="5"/>
-        <v>1.6079999999999999</v>
-      </c>
-      <c r="O38">
-        <f t="shared" si="2"/>
-        <v>0.97499999999999987</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="3"/>
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="S38" t="s">
-        <v>70</v>
-      </c>
-      <c r="T38">
-        <f>SUM(K37:K53)</f>
-        <v>22.657249999999998</v>
-      </c>
-      <c r="U38">
-        <f>SUM(L37:L53)</f>
-        <v>43.457999999999991</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B39">
         <v>1012</v>
@@ -8554,68 +6874,25 @@
       <c r="C39" t="s">
         <v>28</v>
       </c>
-      <c r="D39" t="s">
-        <v>10</v>
+      <c r="D39" s="40" t="s">
+        <v>11</v>
       </c>
       <c r="E39">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="F39">
-        <v>3.0632411067193679E-2</v>
+        <v>5.1383399209486168E-2</v>
       </c>
       <c r="G39">
-        <v>1.5449999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="H39">
-        <v>2.63</v>
-      </c>
-      <c r="I39">
-        <f>G39*ponderaciones!$C$12</f>
-        <v>0.77249999999999996</v>
-      </c>
-      <c r="J39">
-        <f>H39*ponderaciones!$C$12</f>
-        <v>1.3149999999999999</v>
-      </c>
-      <c r="K39">
-        <f>G39*ponderaciones!$D$12</f>
-        <v>1.5449999999999999</v>
-      </c>
-      <c r="L39">
-        <f>H39*ponderaciones!$D$12</f>
-        <v>2.63</v>
-      </c>
-      <c r="M39">
-        <f t="shared" si="4"/>
-        <v>0.77249999999999996</v>
-      </c>
-      <c r="N39">
-        <f t="shared" si="5"/>
-        <v>1.3149999999999999</v>
-      </c>
-      <c r="O39">
-        <f t="shared" si="2"/>
-        <v>1.5449999999999999</v>
-      </c>
-      <c r="P39">
-        <f t="shared" si="3"/>
-        <v>2.63</v>
-      </c>
-      <c r="S39" t="s">
-        <v>79</v>
-      </c>
-      <c r="T39">
-        <f>SUM(M37:M53)</f>
-        <v>15.800875000000001</v>
-      </c>
-      <c r="U39">
-        <f>SUM(N37:N53)</f>
-        <v>30.910499999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B40">
         <v>1012</v>
@@ -8624,67 +6901,24 @@
         <v>28</v>
       </c>
       <c r="D40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E40">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="F40">
-        <v>5.1383399209486168E-2</v>
+        <v>3.1620553359683792E-2</v>
       </c>
       <c r="G40">
-        <v>1.25</v>
+        <v>2.585</v>
       </c>
       <c r="H40">
-        <v>2.58</v>
-      </c>
-      <c r="I40">
-        <f>G40*ponderaciones!$C$13</f>
-        <v>0.375</v>
-      </c>
-      <c r="J40">
-        <f>H40*ponderaciones!$C$13</f>
-        <v>0.77400000000000002</v>
-      </c>
-      <c r="K40">
-        <f>G40*ponderaciones!$D$13</f>
-        <v>1.5</v>
-      </c>
-      <c r="L40">
-        <f>H40*ponderaciones!$D$13</f>
-        <v>3.0960000000000001</v>
-      </c>
-      <c r="M40">
-        <f t="shared" si="4"/>
-        <v>0.375</v>
-      </c>
-      <c r="N40">
-        <f t="shared" si="5"/>
-        <v>0.77400000000000002</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
-      </c>
-      <c r="P40">
-        <f t="shared" si="3"/>
-        <v>3.0960000000000001</v>
-      </c>
-      <c r="S40" t="s">
-        <v>80</v>
-      </c>
-      <c r="T40">
-        <f>SUM(O37:O53)</f>
-        <v>24.326750000000001</v>
-      </c>
-      <c r="U40">
-        <f>SUM(P37:P53)</f>
-        <v>46.448999999999998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B41">
         <v>1012</v>
@@ -8692,57 +6926,25 @@
       <c r="C41" t="s">
         <v>28</v>
       </c>
-      <c r="D41" t="s">
-        <v>12</v>
+      <c r="D41" s="37" t="s">
+        <v>13</v>
       </c>
       <c r="E41">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F41">
-        <v>3.1620553359683792E-2</v>
+        <v>1.7786561264822139E-2</v>
       </c>
       <c r="G41">
-        <v>2.585</v>
+        <v>1.375</v>
       </c>
       <c r="H41">
-        <v>3.89</v>
-      </c>
-      <c r="I41">
-        <f>G41*ponderaciones!$C$14</f>
-        <v>1.2925</v>
-      </c>
-      <c r="J41">
-        <f>H41*ponderaciones!$C$14</f>
-        <v>1.9450000000000001</v>
-      </c>
-      <c r="K41">
-        <f>G41*ponderaciones!$D$14</f>
-        <v>2.585</v>
-      </c>
-      <c r="L41">
-        <f>H41*ponderaciones!$D$14</f>
-        <v>3.89</v>
-      </c>
-      <c r="M41">
-        <f t="shared" si="4"/>
-        <v>1.68025</v>
-      </c>
-      <c r="N41">
-        <f t="shared" si="5"/>
-        <v>2.5285000000000002</v>
-      </c>
-      <c r="O41">
-        <f t="shared" si="2"/>
-        <v>3.3605</v>
-      </c>
-      <c r="P41">
-        <f t="shared" si="3"/>
-        <v>5.0570000000000004</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B42">
         <v>1012</v>
@@ -8750,57 +6952,25 @@
       <c r="C42" t="s">
         <v>28</v>
       </c>
-      <c r="D42" t="s">
-        <v>13</v>
+      <c r="D42" s="39" t="s">
+        <v>14</v>
       </c>
       <c r="E42">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F42">
-        <v>1.7786561264822139E-2</v>
+        <v>4.7430830039525688E-2</v>
       </c>
       <c r="G42">
-        <v>1.375</v>
+        <v>1.0349999999999999</v>
       </c>
       <c r="H42">
-        <v>2.16</v>
-      </c>
-      <c r="I42">
-        <f>G42*ponderaciones!$C$15</f>
-        <v>0.6875</v>
-      </c>
-      <c r="J42">
-        <f>H42*ponderaciones!$C$15</f>
-        <v>1.08</v>
-      </c>
-      <c r="K42">
-        <f>G42*ponderaciones!$D$15</f>
-        <v>1.375</v>
-      </c>
-      <c r="L42">
-        <f>H42*ponderaciones!$D$15</f>
-        <v>2.16</v>
-      </c>
-      <c r="M42">
-        <f t="shared" si="4"/>
-        <v>0.6875</v>
-      </c>
-      <c r="N42">
-        <f t="shared" si="5"/>
-        <v>1.08</v>
-      </c>
-      <c r="O42">
-        <f t="shared" si="2"/>
-        <v>1.375</v>
-      </c>
-      <c r="P42">
-        <f t="shared" si="3"/>
-        <v>2.16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B43">
         <v>1012</v>
@@ -8808,57 +6978,25 @@
       <c r="C43" t="s">
         <v>28</v>
       </c>
-      <c r="D43" t="s">
-        <v>14</v>
+      <c r="D43" s="40" t="s">
+        <v>15</v>
       </c>
       <c r="E43">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F43">
-        <v>4.7430830039525688E-2</v>
+        <v>3.2608695652173912E-2</v>
       </c>
       <c r="G43">
-        <v>1.0349999999999999</v>
+        <v>1.79</v>
       </c>
       <c r="H43">
-        <v>2.13</v>
-      </c>
-      <c r="I43">
-        <f>G43*ponderaciones!$C$16</f>
-        <v>0.31049999999999994</v>
-      </c>
-      <c r="J43">
-        <f>H43*ponderaciones!$C$16</f>
-        <v>0.6389999999999999</v>
-      </c>
-      <c r="K43">
-        <f>G43*ponderaciones!$D$16</f>
-        <v>1.0349999999999999</v>
-      </c>
-      <c r="L43">
-        <f>H43*ponderaciones!$D$16</f>
-        <v>2.13</v>
-      </c>
-      <c r="M43">
-        <f t="shared" si="4"/>
-        <v>0.31049999999999994</v>
-      </c>
-      <c r="N43">
-        <f t="shared" si="5"/>
-        <v>0.6389999999999999</v>
-      </c>
-      <c r="O43">
-        <f t="shared" si="2"/>
-        <v>1.0349999999999999</v>
-      </c>
-      <c r="P43">
-        <f t="shared" si="3"/>
-        <v>2.13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B44">
         <v>1012</v>
@@ -8866,57 +7004,25 @@
       <c r="C44" t="s">
         <v>28</v>
       </c>
-      <c r="D44" t="s">
-        <v>15</v>
+      <c r="D44" s="37" t="s">
+        <v>16</v>
       </c>
       <c r="E44">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F44">
-        <v>3.2608695652173912E-2</v>
+        <v>1.58102766798419E-2</v>
       </c>
       <c r="G44">
-        <v>1.79</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H44">
-        <v>3.68</v>
-      </c>
-      <c r="I44">
-        <f>G44*ponderaciones!$C$17</f>
-        <v>0.89500000000000002</v>
-      </c>
-      <c r="J44">
-        <f>H44*ponderaciones!$C$17</f>
-        <v>1.84</v>
-      </c>
-      <c r="K44">
-        <f>G44*ponderaciones!$D$17</f>
-        <v>1.79</v>
-      </c>
-      <c r="L44">
-        <f>H44*ponderaciones!$D$17</f>
-        <v>3.68</v>
-      </c>
-      <c r="M44">
-        <f t="shared" si="4"/>
-        <v>0.89500000000000002</v>
-      </c>
-      <c r="N44">
-        <f t="shared" si="5"/>
-        <v>1.84</v>
-      </c>
-      <c r="O44">
-        <f t="shared" si="2"/>
-        <v>1.79</v>
-      </c>
-      <c r="P44">
-        <f t="shared" si="3"/>
-        <v>3.68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B45">
         <v>1012</v>
@@ -8924,57 +7030,25 @@
       <c r="C45" t="s">
         <v>28</v>
       </c>
-      <c r="D45" t="s">
-        <v>16</v>
+      <c r="D45" s="40" t="s">
+        <v>17</v>
       </c>
       <c r="E45">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F45">
-        <v>1.58102766798419E-2</v>
+        <v>2.964426877470356E-2</v>
       </c>
       <c r="G45">
-        <v>1.1000000000000001</v>
+        <v>0.87499999999999989</v>
       </c>
       <c r="H45">
-        <v>2.4</v>
-      </c>
-      <c r="I45">
-        <f>G45*ponderaciones!$C$18</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="J45">
-        <f>H45*ponderaciones!$C$18</f>
-        <v>1.2</v>
-      </c>
-      <c r="K45">
-        <f>G45*ponderaciones!$D$18</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L45">
-        <f>H45*ponderaciones!$D$18</f>
-        <v>2.4</v>
-      </c>
-      <c r="M45">
-        <f t="shared" si="4"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="N45">
-        <f t="shared" si="5"/>
-        <v>1.2</v>
-      </c>
-      <c r="O45">
-        <f t="shared" si="2"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P45">
-        <f t="shared" si="3"/>
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B46">
         <v>1012</v>
@@ -8982,57 +7056,25 @@
       <c r="C46" t="s">
         <v>28</v>
       </c>
-      <c r="D46" t="s">
-        <v>17</v>
+      <c r="D46" s="37" t="s">
+        <v>18</v>
       </c>
       <c r="E46">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F46">
-        <v>2.964426877470356E-2</v>
+        <v>2.766798418972332E-2</v>
       </c>
       <c r="G46">
-        <v>0.87499999999999989</v>
+        <v>1.51</v>
       </c>
       <c r="H46">
-        <v>1.58</v>
-      </c>
-      <c r="I46">
-        <f>G46*ponderaciones!$C$19</f>
-        <v>0.43749999999999994</v>
-      </c>
-      <c r="J46">
-        <f>H46*ponderaciones!$C$19</f>
-        <v>0.79</v>
-      </c>
-      <c r="K46">
-        <f>G46*ponderaciones!$D$19</f>
-        <v>0.87499999999999989</v>
-      </c>
-      <c r="L46">
-        <f>H46*ponderaciones!$D$19</f>
-        <v>1.58</v>
-      </c>
-      <c r="M46">
-        <f t="shared" si="4"/>
-        <v>0.43749999999999994</v>
-      </c>
-      <c r="N46">
-        <f t="shared" si="5"/>
-        <v>0.79</v>
-      </c>
-      <c r="O46">
-        <f t="shared" si="2"/>
-        <v>0.87499999999999989</v>
-      </c>
-      <c r="P46">
-        <f t="shared" si="3"/>
-        <v>1.58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B47">
         <v>1012</v>
@@ -9041,56 +7083,24 @@
         <v>28</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E47">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F47">
-        <v>2.766798418972332E-2</v>
+        <v>4.9407114624505928E-2</v>
       </c>
       <c r="G47">
-        <v>1.51</v>
+        <v>1.155</v>
       </c>
       <c r="H47">
-        <v>3.63</v>
-      </c>
-      <c r="I47">
-        <f>G47*ponderaciones!$C$20</f>
-        <v>1.2080000000000002</v>
-      </c>
-      <c r="J47">
-        <f>H47*ponderaciones!$C$20</f>
-        <v>2.9039999999999999</v>
-      </c>
-      <c r="K47">
-        <f>G47*ponderaciones!$D$20</f>
-        <v>1.51</v>
-      </c>
-      <c r="L47">
-        <f>H47*ponderaciones!$D$20</f>
-        <v>3.63</v>
-      </c>
-      <c r="M47">
-        <f t="shared" si="4"/>
-        <v>1.2080000000000002</v>
-      </c>
-      <c r="N47">
-        <f t="shared" si="5"/>
-        <v>2.9039999999999999</v>
-      </c>
-      <c r="O47">
-        <f t="shared" si="2"/>
-        <v>1.51</v>
-      </c>
-      <c r="P47">
-        <f t="shared" si="3"/>
-        <v>3.63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B48">
         <v>1012</v>
@@ -9098,57 +7108,25 @@
       <c r="C48" t="s">
         <v>28</v>
       </c>
-      <c r="D48" t="s">
-        <v>19</v>
+      <c r="D48" s="39" t="s">
+        <v>20</v>
       </c>
       <c r="E48">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="F48">
-        <v>4.9407114624505928E-2</v>
+        <v>2.66798418972332E-2</v>
       </c>
       <c r="G48">
-        <v>1.155</v>
+        <v>1.165</v>
       </c>
       <c r="H48">
-        <v>2.02</v>
-      </c>
-      <c r="I48">
-        <f>G48*ponderaciones!$C$21</f>
-        <v>0.57750000000000001</v>
-      </c>
-      <c r="J48">
-        <f>H48*ponderaciones!$C$21</f>
-        <v>1.01</v>
-      </c>
-      <c r="K48">
-        <f>G48*ponderaciones!$D$21</f>
-        <v>1.155</v>
-      </c>
-      <c r="L48">
-        <f>H48*ponderaciones!$D$21</f>
-        <v>2.02</v>
-      </c>
-      <c r="M48">
-        <f t="shared" si="4"/>
-        <v>0.57750000000000001</v>
-      </c>
-      <c r="N48">
-        <f t="shared" si="5"/>
-        <v>1.01</v>
-      </c>
-      <c r="O48">
-        <f t="shared" si="2"/>
-        <v>1.155</v>
-      </c>
-      <c r="P48">
-        <f t="shared" si="3"/>
-        <v>2.02</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B49">
         <v>1012</v>
@@ -9156,57 +7134,25 @@
       <c r="C49" t="s">
         <v>28</v>
       </c>
-      <c r="D49" t="s">
-        <v>20</v>
+      <c r="D49" s="37" t="s">
+        <v>21</v>
       </c>
       <c r="E49">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F49">
-        <v>2.66798418972332E-2</v>
+        <v>2.766798418972332E-2</v>
       </c>
       <c r="G49">
-        <v>1.165</v>
+        <v>1.5262500000000001</v>
       </c>
       <c r="H49">
-        <v>2.06</v>
-      </c>
-      <c r="I49">
-        <f>G49*ponderaciones!$C$22</f>
-        <v>0.58250000000000002</v>
-      </c>
-      <c r="J49">
-        <f>H49*ponderaciones!$C$22</f>
-        <v>1.03</v>
-      </c>
-      <c r="K49">
-        <f>G49*ponderaciones!$D$22</f>
-        <v>1.165</v>
-      </c>
-      <c r="L49">
-        <f>H49*ponderaciones!$D$22</f>
-        <v>2.06</v>
-      </c>
-      <c r="M49">
-        <f t="shared" si="4"/>
-        <v>0.58250000000000002</v>
-      </c>
-      <c r="N49">
-        <f t="shared" si="5"/>
-        <v>1.03</v>
-      </c>
-      <c r="O49">
-        <f t="shared" si="2"/>
-        <v>1.165</v>
-      </c>
-      <c r="P49">
-        <f t="shared" si="3"/>
-        <v>2.06</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B50">
         <v>1012</v>
@@ -9214,57 +7160,25 @@
       <c r="C50" t="s">
         <v>28</v>
       </c>
-      <c r="D50" t="s">
-        <v>21</v>
+      <c r="D50" s="39" t="s">
+        <v>22</v>
       </c>
       <c r="E50">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F50">
-        <v>2.766798418972332E-2</v>
+        <v>3.8537549407114617E-2</v>
       </c>
       <c r="G50">
-        <v>1.5262500000000001</v>
+        <v>1.31</v>
       </c>
       <c r="H50">
-        <v>2.44</v>
-      </c>
-      <c r="I50">
-        <f>G50*ponderaciones!$C$23</f>
-        <v>0.76312500000000005</v>
-      </c>
-      <c r="J50">
-        <f>H50*ponderaciones!$C$23</f>
-        <v>1.22</v>
-      </c>
-      <c r="K50">
-        <f>G50*ponderaciones!$D$23</f>
-        <v>1.5262500000000001</v>
-      </c>
-      <c r="L50">
-        <f>H50*ponderaciones!$D$23</f>
-        <v>2.44</v>
-      </c>
-      <c r="M50">
-        <f t="shared" si="4"/>
-        <v>0.76312500000000005</v>
-      </c>
-      <c r="N50">
-        <f t="shared" si="5"/>
-        <v>1.22</v>
-      </c>
-      <c r="O50">
-        <f t="shared" si="2"/>
-        <v>1.5262500000000001</v>
-      </c>
-      <c r="P50">
-        <f t="shared" si="3"/>
-        <v>2.44</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B51">
         <v>1012</v>
@@ -9272,184 +7186,77 @@
       <c r="C51" t="s">
         <v>28</v>
       </c>
-      <c r="D51" t="s">
-        <v>22</v>
+      <c r="D51" s="40" t="s">
+        <v>23</v>
       </c>
       <c r="E51">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F51">
-        <v>3.8537549407114617E-2</v>
+        <v>4.6442687747035583E-2</v>
       </c>
       <c r="G51">
-        <v>1.31</v>
+        <v>1.085</v>
       </c>
       <c r="H51">
-        <v>2.79</v>
-      </c>
-      <c r="I51">
-        <f>G51*ponderaciones!$C$24</f>
-        <v>0.39300000000000002</v>
-      </c>
-      <c r="J51">
-        <f>H51*ponderaciones!$C$24</f>
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="K51">
-        <f>G51*ponderaciones!$D$24</f>
-        <v>1.5720000000000001</v>
-      </c>
-      <c r="L51">
-        <f>H51*ponderaciones!$D$24</f>
-        <v>3.3479999999999999</v>
-      </c>
-      <c r="M51">
-        <f t="shared" si="4"/>
-        <v>0.39300000000000002</v>
-      </c>
-      <c r="N51">
-        <f t="shared" si="5"/>
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="O51">
-        <f t="shared" si="2"/>
-        <v>1.5720000000000001</v>
-      </c>
-      <c r="P51">
-        <f t="shared" si="3"/>
-        <v>3.3479999999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>15</v>
-      </c>
-      <c r="B52">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="42">
+        <v>16</v>
+      </c>
+      <c r="B52" s="21">
         <v>1012</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D52" t="s">
-        <v>23</v>
-      </c>
-      <c r="E52">
-        <v>47</v>
-      </c>
-      <c r="F52">
-        <v>4.6442687747035583E-2</v>
-      </c>
-      <c r="G52">
-        <v>1.085</v>
-      </c>
-      <c r="H52">
-        <v>2.11</v>
-      </c>
-      <c r="I52">
-        <f>G52*ponderaciones!$C$25</f>
-        <v>0.54249999999999998</v>
-      </c>
-      <c r="J52">
-        <f>H52*ponderaciones!$C$25</f>
-        <v>1.0549999999999999</v>
-      </c>
-      <c r="K52">
-        <f>G52*ponderaciones!$D$25</f>
-        <v>1.085</v>
-      </c>
-      <c r="L52">
-        <f>H52*ponderaciones!$D$25</f>
-        <v>2.11</v>
-      </c>
-      <c r="M52">
-        <f t="shared" si="4"/>
-        <v>0.54249999999999998</v>
-      </c>
-      <c r="N52">
-        <f t="shared" si="5"/>
-        <v>1.0549999999999999</v>
-      </c>
-      <c r="O52">
-        <f t="shared" si="2"/>
-        <v>1.085</v>
-      </c>
-      <c r="P52">
-        <f t="shared" si="3"/>
-        <v>2.11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>16</v>
+      <c r="D52" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="21">
+        <v>33</v>
+      </c>
+      <c r="F52" s="21">
+        <v>3.2608695652173912E-2</v>
+      </c>
+      <c r="G52" s="21">
+        <v>2.2349999999999999</v>
+      </c>
+      <c r="H52" s="21">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="41">
+        <v>0</v>
       </c>
       <c r="B53">
-        <v>1012</v>
+        <v>1000</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
-      </c>
-      <c r="D53" t="s">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="D53" s="38" t="s">
+        <v>8</v>
       </c>
       <c r="E53">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F53">
-        <v>3.2608695652173912E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="G53">
-        <v>2.2349999999999999</v>
+        <v>1.0649999999999999</v>
       </c>
       <c r="H53">
-        <v>4.5599999999999996</v>
-      </c>
-      <c r="I53">
-        <f>G53*ponderaciones!$C$26</f>
-        <v>2.2349999999999999</v>
-      </c>
-      <c r="J53">
-        <f>H53*ponderaciones!$C$26</f>
-        <v>4.5599999999999996</v>
-      </c>
-      <c r="K53">
-        <f>G53*ponderaciones!$D$26</f>
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="L53">
-        <f>H53*ponderaciones!$D$26</f>
-        <v>1.8239999999999998</v>
-      </c>
-      <c r="M53">
-        <f t="shared" si="4"/>
-        <v>4.47</v>
-      </c>
-      <c r="N53">
-        <f t="shared" si="5"/>
-        <v>9.1199999999999992</v>
-      </c>
-      <c r="O53">
-        <f t="shared" si="2"/>
-        <v>1.788</v>
-      </c>
-      <c r="P53">
-        <f t="shared" si="3"/>
-        <v>3.6479999999999997</v>
-      </c>
-      <c r="S53" t="s">
-        <v>71</v>
-      </c>
-      <c r="T53">
-        <f>SUM(I53:I69)</f>
-        <v>15.560125000000001</v>
-      </c>
-      <c r="U53">
-        <f>SUM(J53:J69)</f>
-        <v>25.265000000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B54">
         <v>1000</v>
@@ -9457,68 +7264,25 @@
       <c r="C54" t="s">
         <v>30</v>
       </c>
-      <c r="D54" t="s">
-        <v>8</v>
+      <c r="D54" s="38" t="s">
+        <v>9</v>
       </c>
       <c r="E54">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="F54">
-        <v>3.1E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="G54">
-        <v>1.0649999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H54">
-        <v>1.64</v>
-      </c>
-      <c r="I54">
-        <f>G54*ponderaciones!$C$10</f>
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="J54">
-        <f>H54*ponderaciones!$C$10</f>
-        <v>1.3120000000000001</v>
-      </c>
-      <c r="K54">
-        <f>G54*ponderaciones!$D$10</f>
-        <v>1.0649999999999999</v>
-      </c>
-      <c r="L54">
-        <f>H54*ponderaciones!$D$10</f>
-        <v>1.64</v>
-      </c>
-      <c r="M54">
-        <f t="shared" si="4"/>
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="N54">
-        <f t="shared" si="5"/>
-        <v>1.3120000000000001</v>
-      </c>
-      <c r="O54">
-        <f t="shared" si="2"/>
-        <v>1.0649999999999999</v>
-      </c>
-      <c r="P54">
-        <f t="shared" si="3"/>
-        <v>1.64</v>
-      </c>
-      <c r="S54" t="s">
-        <v>70</v>
-      </c>
-      <c r="T54">
-        <f>SUM(K53:K69)</f>
-        <v>27.642500000000002</v>
-      </c>
-      <c r="U54">
-        <f>SUM(L53:L69)</f>
-        <v>44.153999999999996</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B55">
         <v>1000</v>
@@ -9526,68 +7290,25 @@
       <c r="C55" t="s">
         <v>30</v>
       </c>
-      <c r="D55" t="s">
-        <v>9</v>
+      <c r="D55" s="38" t="s">
+        <v>10</v>
       </c>
       <c r="E55">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="F55">
-        <v>5.1999999999999998E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="G55">
-        <v>1.1000000000000001</v>
+        <v>2.0662500000000001</v>
       </c>
       <c r="H55">
-        <v>1.95</v>
-      </c>
-      <c r="I55">
-        <f>G55*ponderaciones!$C$11</f>
-        <v>0.88000000000000012</v>
-      </c>
-      <c r="J55">
-        <f>H55*ponderaciones!$C$11</f>
-        <v>1.56</v>
-      </c>
-      <c r="K55">
-        <f>G55*ponderaciones!$D$11</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L55">
-        <f>H55*ponderaciones!$D$11</f>
-        <v>1.95</v>
-      </c>
-      <c r="M55">
-        <f t="shared" si="4"/>
-        <v>0.88000000000000012</v>
-      </c>
-      <c r="N55">
-        <f t="shared" si="5"/>
-        <v>1.56</v>
-      </c>
-      <c r="O55">
-        <f t="shared" si="2"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P55">
-        <f t="shared" si="3"/>
-        <v>1.95</v>
-      </c>
-      <c r="S55" t="s">
-        <v>79</v>
-      </c>
-      <c r="T55">
-        <f>SUM(M53:M69)</f>
-        <v>18.228625000000005</v>
-      </c>
-      <c r="U55">
-        <f>SUM(N53:N69)</f>
-        <v>30.454999999999998</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B56">
         <v>1000</v>
@@ -9595,68 +7316,25 @@
       <c r="C56" t="s">
         <v>30</v>
       </c>
-      <c r="D56" t="s">
-        <v>10</v>
+      <c r="D56" s="40" t="s">
+        <v>11</v>
       </c>
       <c r="E56">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F56">
-        <v>1.2E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="G56">
-        <v>2.0662500000000001</v>
+        <v>1.7350000000000001</v>
       </c>
       <c r="H56">
-        <v>3.49</v>
-      </c>
-      <c r="I56">
-        <f>G56*ponderaciones!$C$12</f>
-        <v>1.0331250000000001</v>
-      </c>
-      <c r="J56">
-        <f>H56*ponderaciones!$C$12</f>
-        <v>1.7450000000000001</v>
-      </c>
-      <c r="K56">
-        <f>G56*ponderaciones!$D$12</f>
-        <v>2.0662500000000001</v>
-      </c>
-      <c r="L56">
-        <f>H56*ponderaciones!$D$12</f>
-        <v>3.49</v>
-      </c>
-      <c r="M56">
-        <f t="shared" si="4"/>
-        <v>1.0331250000000001</v>
-      </c>
-      <c r="N56">
-        <f t="shared" si="5"/>
-        <v>1.7450000000000001</v>
-      </c>
-      <c r="O56">
-        <f t="shared" si="2"/>
-        <v>2.0662500000000001</v>
-      </c>
-      <c r="P56">
-        <f t="shared" si="3"/>
-        <v>3.49</v>
-      </c>
-      <c r="S56" t="s">
-        <v>80</v>
-      </c>
-      <c r="T56">
-        <f>SUM(O53:O69)</f>
-        <v>29.403500000000001</v>
-      </c>
-      <c r="U56">
-        <f>SUM(P53:P69)</f>
-        <v>47.238</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B57">
         <v>1000</v>
@@ -9665,56 +7343,24 @@
         <v>30</v>
       </c>
       <c r="D57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E57">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F57">
-        <v>2.1000000000000001E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="G57">
-        <v>1.7350000000000001</v>
+        <v>2.89</v>
       </c>
       <c r="H57">
-        <v>2.9</v>
-      </c>
-      <c r="I57">
-        <f>G57*ponderaciones!$C$13</f>
-        <v>0.52049999999999996</v>
-      </c>
-      <c r="J57">
-        <f>H57*ponderaciones!$C$13</f>
-        <v>0.87</v>
-      </c>
-      <c r="K57">
-        <f>G57*ponderaciones!$D$13</f>
-        <v>2.0819999999999999</v>
-      </c>
-      <c r="L57">
-        <f>H57*ponderaciones!$D$13</f>
-        <v>3.48</v>
-      </c>
-      <c r="M57">
-        <f t="shared" si="4"/>
-        <v>0.52049999999999996</v>
-      </c>
-      <c r="N57">
-        <f t="shared" si="5"/>
-        <v>0.87</v>
-      </c>
-      <c r="O57">
-        <f t="shared" si="2"/>
-        <v>2.0819999999999999</v>
-      </c>
-      <c r="P57">
-        <f t="shared" si="3"/>
-        <v>3.48</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B58">
         <v>1000</v>
@@ -9722,57 +7368,25 @@
       <c r="C58" t="s">
         <v>30</v>
       </c>
-      <c r="D58" t="s">
-        <v>12</v>
+      <c r="D58" s="37" t="s">
+        <v>13</v>
       </c>
       <c r="E58">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F58">
-        <v>2.9000000000000001E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G58">
-        <v>2.89</v>
+        <v>1.625</v>
       </c>
       <c r="H58">
-        <v>4.2</v>
-      </c>
-      <c r="I58">
-        <f>G58*ponderaciones!$C$14</f>
-        <v>1.4450000000000001</v>
-      </c>
-      <c r="J58">
-        <f>H58*ponderaciones!$C$14</f>
-        <v>2.1</v>
-      </c>
-      <c r="K58">
-        <f>G58*ponderaciones!$D$14</f>
-        <v>2.89</v>
-      </c>
-      <c r="L58">
-        <f>H58*ponderaciones!$D$14</f>
-        <v>4.2</v>
-      </c>
-      <c r="M58">
-        <f t="shared" si="4"/>
-        <v>1.8785000000000001</v>
-      </c>
-      <c r="N58">
-        <f t="shared" si="5"/>
-        <v>2.7300000000000004</v>
-      </c>
-      <c r="O58">
-        <f t="shared" si="2"/>
-        <v>3.7570000000000001</v>
-      </c>
-      <c r="P58">
-        <f t="shared" si="3"/>
-        <v>5.4600000000000009</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B59">
         <v>1000</v>
@@ -9780,57 +7394,25 @@
       <c r="C59" t="s">
         <v>30</v>
       </c>
-      <c r="D59" t="s">
-        <v>13</v>
+      <c r="D59" s="39" t="s">
+        <v>14</v>
       </c>
       <c r="E59">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F59">
-        <v>0.01</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="G59">
-        <v>1.625</v>
+        <v>1.32</v>
       </c>
       <c r="H59">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="I59">
-        <f>G59*ponderaciones!$C$15</f>
-        <v>0.8125</v>
-      </c>
-      <c r="J59">
-        <f>H59*ponderaciones!$C$15</f>
-        <v>1.2450000000000001</v>
-      </c>
-      <c r="K59">
-        <f>G59*ponderaciones!$D$15</f>
-        <v>1.625</v>
-      </c>
-      <c r="L59">
-        <f>H59*ponderaciones!$D$15</f>
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="M59">
-        <f t="shared" si="4"/>
-        <v>0.8125</v>
-      </c>
-      <c r="N59">
-        <f t="shared" si="5"/>
-        <v>1.2450000000000001</v>
-      </c>
-      <c r="O59">
-        <f t="shared" si="2"/>
-        <v>1.625</v>
-      </c>
-      <c r="P59">
-        <f t="shared" si="3"/>
-        <v>2.4900000000000002</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B60">
         <v>1000</v>
@@ -9838,57 +7420,25 @@
       <c r="C60" t="s">
         <v>30</v>
       </c>
-      <c r="D60" t="s">
-        <v>14</v>
+      <c r="D60" s="40" t="s">
+        <v>15</v>
       </c>
       <c r="E60">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F60">
-        <v>2.5000000000000001E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="G60">
-        <v>1.32</v>
+        <v>2.4950000000000001</v>
       </c>
       <c r="H60">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="I60">
-        <f>G60*ponderaciones!$C$16</f>
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="J60">
-        <f>H60*ponderaciones!$C$16</f>
-        <v>0.75299999999999989</v>
-      </c>
-      <c r="K60">
-        <f>G60*ponderaciones!$D$16</f>
-        <v>1.32</v>
-      </c>
-      <c r="L60">
-        <f>H60*ponderaciones!$D$16</f>
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="M60">
-        <f t="shared" si="4"/>
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="N60">
-        <f t="shared" si="5"/>
-        <v>0.75299999999999989</v>
-      </c>
-      <c r="O60">
-        <f t="shared" si="2"/>
-        <v>1.32</v>
-      </c>
-      <c r="P60">
-        <f t="shared" si="3"/>
-        <v>2.5099999999999998</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B61">
         <v>1000</v>
@@ -9896,57 +7446,25 @@
       <c r="C61" t="s">
         <v>30</v>
       </c>
-      <c r="D61" t="s">
-        <v>15</v>
+      <c r="D61" s="37" t="s">
+        <v>16</v>
       </c>
       <c r="E61">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F61">
-        <v>2.3E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="G61">
-        <v>2.4950000000000001</v>
+        <v>0.94</v>
       </c>
       <c r="H61">
-        <v>3.63</v>
-      </c>
-      <c r="I61">
-        <f>G61*ponderaciones!$C$17</f>
-        <v>1.2475000000000001</v>
-      </c>
-      <c r="J61">
-        <f>H61*ponderaciones!$C$17</f>
-        <v>1.8149999999999999</v>
-      </c>
-      <c r="K61">
-        <f>G61*ponderaciones!$D$17</f>
-        <v>2.4950000000000001</v>
-      </c>
-      <c r="L61">
-        <f>H61*ponderaciones!$D$17</f>
-        <v>3.63</v>
-      </c>
-      <c r="M61">
-        <f t="shared" si="4"/>
-        <v>1.2475000000000001</v>
-      </c>
-      <c r="N61">
-        <f t="shared" si="5"/>
-        <v>1.8149999999999999</v>
-      </c>
-      <c r="O61">
-        <f t="shared" si="2"/>
-        <v>2.4950000000000001</v>
-      </c>
-      <c r="P61">
-        <f t="shared" si="3"/>
-        <v>3.63</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B62">
         <v>1000</v>
@@ -9954,57 +7472,25 @@
       <c r="C62" t="s">
         <v>30</v>
       </c>
-      <c r="D62" t="s">
-        <v>16</v>
+      <c r="D62" s="40" t="s">
+        <v>17</v>
       </c>
       <c r="E62">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F62">
-        <v>3.6999999999999998E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="G62">
-        <v>0.94</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>1.69</v>
-      </c>
-      <c r="I62">
-        <f>G62*ponderaciones!$C$18</f>
-        <v>0.47</v>
-      </c>
-      <c r="J62">
-        <f>H62*ponderaciones!$C$18</f>
-        <v>0.84499999999999997</v>
-      </c>
-      <c r="K62">
-        <f>G62*ponderaciones!$D$18</f>
-        <v>0.94</v>
-      </c>
-      <c r="L62">
-        <f>H62*ponderaciones!$D$18</f>
-        <v>1.69</v>
-      </c>
-      <c r="M62">
-        <f t="shared" si="4"/>
-        <v>0.47</v>
-      </c>
-      <c r="N62">
-        <f t="shared" si="5"/>
-        <v>0.84499999999999997</v>
-      </c>
-      <c r="O62">
-        <f t="shared" si="2"/>
-        <v>0.94</v>
-      </c>
-      <c r="P62">
-        <f t="shared" si="3"/>
-        <v>1.69</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B63">
         <v>1000</v>
@@ -10012,57 +7498,25 @@
       <c r="C63" t="s">
         <v>30</v>
       </c>
-      <c r="D63" t="s">
-        <v>17</v>
+      <c r="D63" s="37" t="s">
+        <v>18</v>
       </c>
       <c r="E63">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F63">
-        <v>1.9E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>1.83125</v>
       </c>
       <c r="H63">
-        <v>1.6</v>
-      </c>
-      <c r="I63">
-        <f>G63*ponderaciones!$C$19</f>
-        <v>0.5</v>
-      </c>
-      <c r="J63">
-        <f>H63*ponderaciones!$C$19</f>
-        <v>0.8</v>
-      </c>
-      <c r="K63">
-        <f>G63*ponderaciones!$D$19</f>
-        <v>1</v>
-      </c>
-      <c r="L63">
-        <f>H63*ponderaciones!$D$19</f>
-        <v>1.6</v>
-      </c>
-      <c r="M63">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
-      <c r="N63">
-        <f t="shared" si="5"/>
-        <v>0.8</v>
-      </c>
-      <c r="O63">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P63">
-        <f t="shared" si="3"/>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B64">
         <v>1000</v>
@@ -10071,56 +7525,24 @@
         <v>30</v>
       </c>
       <c r="D64" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64">
         <v>18</v>
       </c>
-      <c r="E64">
-        <v>8</v>
-      </c>
       <c r="F64">
-        <v>8.0000000000000002E-3</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G64">
-        <v>1.83125</v>
+        <v>1.7450000000000001</v>
       </c>
       <c r="H64">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I64">
-        <f>G64*ponderaciones!$C$20</f>
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="J64">
-        <f>H64*ponderaciones!$C$20</f>
-        <v>1.8399999999999999</v>
-      </c>
-      <c r="K64">
-        <f>G64*ponderaciones!$D$20</f>
-        <v>1.83125</v>
-      </c>
-      <c r="L64">
-        <f>H64*ponderaciones!$D$20</f>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="M64">
-        <f t="shared" si="4"/>
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="N64">
-        <f t="shared" si="5"/>
-        <v>1.8399999999999999</v>
-      </c>
-      <c r="O64">
-        <f t="shared" si="2"/>
-        <v>1.83125</v>
-      </c>
-      <c r="P64">
-        <f t="shared" si="3"/>
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B65">
         <v>1000</v>
@@ -10128,57 +7550,25 @@
       <c r="C65" t="s">
         <v>30</v>
       </c>
-      <c r="D65" t="s">
-        <v>19</v>
+      <c r="D65" s="39" t="s">
+        <v>20</v>
       </c>
       <c r="E65">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F65">
-        <v>1.7999999999999999E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="G65">
-        <v>1.7450000000000001</v>
+        <v>1.4012500000000001</v>
       </c>
       <c r="H65">
-        <v>2.62</v>
-      </c>
-      <c r="I65">
-        <f>G65*ponderaciones!$C$21</f>
-        <v>0.87250000000000005</v>
-      </c>
-      <c r="J65">
-        <f>H65*ponderaciones!$C$21</f>
-        <v>1.31</v>
-      </c>
-      <c r="K65">
-        <f>G65*ponderaciones!$D$21</f>
-        <v>1.7450000000000001</v>
-      </c>
-      <c r="L65">
-        <f>H65*ponderaciones!$D$21</f>
-        <v>2.62</v>
-      </c>
-      <c r="M65">
-        <f t="shared" si="4"/>
-        <v>0.87250000000000005</v>
-      </c>
-      <c r="N65">
-        <f t="shared" si="5"/>
-        <v>1.31</v>
-      </c>
-      <c r="O65">
-        <f t="shared" si="2"/>
-        <v>1.7450000000000001</v>
-      </c>
-      <c r="P65">
-        <f t="shared" si="3"/>
-        <v>2.62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B66">
         <v>1000</v>
@@ -10186,57 +7576,25 @@
       <c r="C66" t="s">
         <v>30</v>
       </c>
-      <c r="D66" t="s">
-        <v>20</v>
+      <c r="D66" s="37" t="s">
+        <v>21</v>
       </c>
       <c r="E66">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="F66">
-        <v>1.6E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="G66">
-        <v>1.4012500000000001</v>
+        <v>1.625</v>
       </c>
       <c r="H66">
-        <v>1.91</v>
-      </c>
-      <c r="I66">
-        <f>G66*ponderaciones!$C$22</f>
-        <v>0.70062500000000005</v>
-      </c>
-      <c r="J66">
-        <f>H66*ponderaciones!$C$22</f>
-        <v>0.95499999999999996</v>
-      </c>
-      <c r="K66">
-        <f>G66*ponderaciones!$D$22</f>
-        <v>1.4012500000000001</v>
-      </c>
-      <c r="L66">
-        <f>H66*ponderaciones!$D$22</f>
-        <v>1.91</v>
-      </c>
-      <c r="M66">
-        <f t="shared" si="4"/>
-        <v>0.70062500000000005</v>
-      </c>
-      <c r="N66">
-        <f t="shared" si="5"/>
-        <v>0.95499999999999996</v>
-      </c>
-      <c r="O66">
-        <f t="shared" ref="O66:O86" si="6">IF($A66=4,K66*1.3,IF($A66=16,K66*2,K66*1))</f>
-        <v>1.4012500000000001</v>
-      </c>
-      <c r="P66">
-        <f t="shared" ref="P66:P86" si="7">IF($A66=4,L66*1.3,IF($A66=16,L66*2,L66*1))</f>
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B67">
         <v>1000</v>
@@ -10244,57 +7602,25 @@
       <c r="C67" t="s">
         <v>30</v>
       </c>
-      <c r="D67" t="s">
-        <v>21</v>
+      <c r="D67" s="39" t="s">
+        <v>22</v>
       </c>
       <c r="E67">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F67">
-        <v>4.2999999999999997E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="G67">
-        <v>1.625</v>
+        <v>1.5449999999999999</v>
       </c>
       <c r="H67">
-        <v>2.56</v>
-      </c>
-      <c r="I67">
-        <f>G67*ponderaciones!$C$23</f>
-        <v>0.8125</v>
-      </c>
-      <c r="J67">
-        <f>H67*ponderaciones!$C$23</f>
-        <v>1.28</v>
-      </c>
-      <c r="K67">
-        <f>G67*ponderaciones!$D$23</f>
-        <v>1.625</v>
-      </c>
-      <c r="L67">
-        <f>H67*ponderaciones!$D$23</f>
-        <v>2.56</v>
-      </c>
-      <c r="M67">
-        <f t="shared" si="4"/>
-        <v>0.8125</v>
-      </c>
-      <c r="N67">
-        <f t="shared" si="5"/>
-        <v>1.28</v>
-      </c>
-      <c r="O67">
-        <f t="shared" si="6"/>
-        <v>1.625</v>
-      </c>
-      <c r="P67">
-        <f t="shared" si="7"/>
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B68">
         <v>1000</v>
@@ -10302,173 +7628,77 @@
       <c r="C68" t="s">
         <v>30</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68">
         <v>22</v>
       </c>
-      <c r="E68">
-        <v>37</v>
-      </c>
       <c r="F68">
-        <v>3.6999999999999998E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="G68">
-        <v>1.5449999999999999</v>
+        <v>1.70875</v>
       </c>
       <c r="H68">
-        <v>2.85</v>
-      </c>
-      <c r="I68">
-        <f>G68*ponderaciones!$C$24</f>
-        <v>0.46349999999999997</v>
-      </c>
-      <c r="J68">
-        <f>H68*ponderaciones!$C$24</f>
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="K68">
-        <f>G68*ponderaciones!$D$24</f>
-        <v>1.8539999999999999</v>
-      </c>
-      <c r="L68">
-        <f>H68*ponderaciones!$D$24</f>
-        <v>3.42</v>
-      </c>
-      <c r="M68">
-        <f t="shared" si="4"/>
-        <v>0.46349999999999997</v>
-      </c>
-      <c r="N68">
-        <f t="shared" si="5"/>
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="O68">
-        <f t="shared" si="6"/>
-        <v>1.8539999999999999</v>
-      </c>
-      <c r="P68">
-        <f t="shared" si="7"/>
-        <v>3.42</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>15</v>
-      </c>
-      <c r="B69">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="42">
+        <v>16</v>
+      </c>
+      <c r="B69" s="21">
         <v>1000</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D69" t="s">
-        <v>23</v>
-      </c>
-      <c r="E69">
-        <v>22</v>
-      </c>
-      <c r="F69">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="G69">
-        <v>1.70875</v>
-      </c>
-      <c r="H69">
-        <v>2.84</v>
-      </c>
-      <c r="I69">
-        <f>G69*ponderaciones!$C$25</f>
-        <v>0.854375</v>
-      </c>
-      <c r="J69">
-        <f>H69*ponderaciones!$C$25</f>
-        <v>1.42</v>
-      </c>
-      <c r="K69">
-        <f>G69*ponderaciones!$D$25</f>
-        <v>1.70875</v>
-      </c>
-      <c r="L69">
-        <f>H69*ponderaciones!$D$25</f>
-        <v>2.84</v>
-      </c>
-      <c r="M69">
-        <f t="shared" si="4"/>
-        <v>0.854375</v>
-      </c>
-      <c r="N69">
-        <f t="shared" si="5"/>
-        <v>1.42</v>
-      </c>
-      <c r="O69">
-        <f t="shared" si="6"/>
-        <v>1.70875</v>
-      </c>
-      <c r="P69">
-        <f t="shared" si="7"/>
-        <v>2.84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>16</v>
+      <c r="D69" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E69" s="21">
+        <v>60</v>
+      </c>
+      <c r="F69" s="21">
+        <v>0.06</v>
+      </c>
+      <c r="G69" s="21">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="H69" s="21">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="41">
+        <v>0</v>
       </c>
       <c r="B70">
-        <v>1000</v>
+        <v>649</v>
       </c>
       <c r="C70" t="s">
-        <v>30</v>
-      </c>
-      <c r="D70" t="s">
-        <v>24</v>
+        <v>32</v>
+      </c>
+      <c r="D70" s="38" t="s">
+        <v>8</v>
       </c>
       <c r="E70">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>2.0699999999999998</v>
+        <v>0.57500000000000007</v>
       </c>
       <c r="H70">
-        <v>4.07</v>
-      </c>
-      <c r="I70">
-        <f>G70*ponderaciones!$C$26</f>
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="J70">
-        <f>H70*ponderaciones!$C$26</f>
-        <v>4.07</v>
-      </c>
-      <c r="K70">
-        <f>G70*ponderaciones!$D$26</f>
-        <v>0.82799999999999996</v>
-      </c>
-      <c r="L70">
-        <f>H70*ponderaciones!$D$26</f>
-        <v>1.6280000000000001</v>
-      </c>
-      <c r="M70">
-        <f t="shared" si="4"/>
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="N70">
-        <f t="shared" si="5"/>
-        <v>8.14</v>
-      </c>
-      <c r="O70">
-        <f t="shared" si="6"/>
-        <v>1.6559999999999999</v>
-      </c>
-      <c r="P70">
-        <f t="shared" si="7"/>
-        <v>3.2560000000000002</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B71">
         <v>649</v>
@@ -10476,68 +7706,25 @@
       <c r="C71" t="s">
         <v>32</v>
       </c>
-      <c r="D71" t="s">
-        <v>8</v>
+      <c r="D71" s="38" t="s">
+        <v>9</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>6.7796610169491525E-2</v>
       </c>
       <c r="G71">
-        <v>0.57500000000000007</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="H71">
-        <v>0.53</v>
-      </c>
-      <c r="I71">
-        <f>G71*ponderaciones!$C$10</f>
-        <v>0.46000000000000008</v>
-      </c>
-      <c r="J71">
-        <f>H71*ponderaciones!$C$10</f>
-        <v>0.42400000000000004</v>
-      </c>
-      <c r="K71">
-        <f>G71*ponderaciones!$D$10</f>
-        <v>0.57500000000000007</v>
-      </c>
-      <c r="L71">
-        <f>H71*ponderaciones!$D$10</f>
-        <v>0.53</v>
-      </c>
-      <c r="M71">
-        <f t="shared" si="4"/>
-        <v>0.46000000000000008</v>
-      </c>
-      <c r="N71">
-        <f t="shared" si="5"/>
-        <v>0.42400000000000004</v>
-      </c>
-      <c r="O71">
-        <f t="shared" si="6"/>
-        <v>0.57500000000000007</v>
-      </c>
-      <c r="P71">
-        <f t="shared" si="7"/>
-        <v>0.53</v>
-      </c>
-      <c r="S71" t="s">
-        <v>71</v>
-      </c>
-      <c r="T71">
-        <f>SUM(I71:I87)</f>
-        <v>6.9825000000000008</v>
-      </c>
-      <c r="U71">
-        <f>SUM(J71:J87)</f>
-        <v>9.2219999999999995</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B72">
         <v>649</v>
@@ -10545,68 +7732,25 @@
       <c r="C72" t="s">
         <v>32</v>
       </c>
-      <c r="D72" t="s">
-        <v>9</v>
+      <c r="D72" s="38" t="s">
+        <v>10</v>
       </c>
       <c r="E72">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F72">
-        <v>6.7796610169491525E-2</v>
+        <v>8.4745762711864403E-2</v>
       </c>
       <c r="G72">
-        <v>0.47499999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="H72">
-        <v>0.8</v>
-      </c>
-      <c r="I72">
-        <f>G72*ponderaciones!$C$11</f>
-        <v>0.38</v>
-      </c>
-      <c r="J72">
-        <f>H72*ponderaciones!$C$11</f>
-        <v>0.64000000000000012</v>
-      </c>
-      <c r="K72">
-        <f>G72*ponderaciones!$D$11</f>
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="L72">
-        <f>H72*ponderaciones!$D$11</f>
-        <v>0.8</v>
-      </c>
-      <c r="M72">
-        <f t="shared" ref="M72:M87" si="8">IF($A72=4,I72*1.3,IF($A72=16,I72*2,I72*1))</f>
-        <v>0.38</v>
-      </c>
-      <c r="N72">
-        <f t="shared" ref="N72:N87" si="9">IF($A72=4,J72*1.3,IF($A72=16,J72*2,J72*1))</f>
-        <v>0.64000000000000012</v>
-      </c>
-      <c r="O72">
-        <f t="shared" si="6"/>
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="P72">
-        <f t="shared" si="7"/>
-        <v>0.8</v>
-      </c>
-      <c r="S72" t="s">
-        <v>70</v>
-      </c>
-      <c r="T72">
-        <f>SUM(K71:K87)</f>
-        <v>12.02</v>
-      </c>
-      <c r="U72">
-        <f>SUM(L71:L87)</f>
-        <v>16.595999999999997</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B73">
         <v>649</v>
@@ -10614,68 +7758,25 @@
       <c r="C73" t="s">
         <v>32</v>
       </c>
-      <c r="D73" t="s">
-        <v>10</v>
+      <c r="D73" s="40" t="s">
+        <v>11</v>
       </c>
       <c r="E73">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="F73">
-        <v>8.4745762711864403E-2</v>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="G73">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H73">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I73">
-        <f>G73*ponderaciones!$C$12</f>
-        <v>0.3</v>
-      </c>
-      <c r="J73">
-        <f>H73*ponderaciones!$C$12</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="K73">
-        <f>G73*ponderaciones!$D$12</f>
-        <v>0.6</v>
-      </c>
-      <c r="L73">
-        <f>H73*ponderaciones!$D$12</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M73">
-        <f t="shared" si="8"/>
-        <v>0.3</v>
-      </c>
-      <c r="N73">
-        <f t="shared" si="9"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="O73">
-        <f t="shared" si="6"/>
-        <v>0.6</v>
-      </c>
-      <c r="P73">
-        <f t="shared" si="7"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="S73" t="s">
-        <v>79</v>
-      </c>
-      <c r="T73">
-        <f>SUM(M71:M87)</f>
-        <v>8.4445000000000014</v>
-      </c>
-      <c r="U73">
-        <f>SUM(N71:N87)</f>
-        <v>10.9575</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B74">
         <v>649</v>
@@ -10684,67 +7785,24 @@
         <v>32</v>
       </c>
       <c r="D74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E74">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="F74">
-        <v>5.0847457627118647E-2</v>
+        <v>8.4745762711864403E-2</v>
       </c>
       <c r="G74">
-        <v>0.8</v>
+        <v>1.08</v>
       </c>
       <c r="H74">
-        <v>1.53</v>
-      </c>
-      <c r="I74">
-        <f>G74*ponderaciones!$C$13</f>
-        <v>0.24</v>
-      </c>
-      <c r="J74">
-        <f>H74*ponderaciones!$C$13</f>
-        <v>0.45899999999999996</v>
-      </c>
-      <c r="K74">
-        <f>G74*ponderaciones!$D$13</f>
-        <v>0.96</v>
-      </c>
-      <c r="L74">
-        <f>H74*ponderaciones!$D$13</f>
-        <v>1.8359999999999999</v>
-      </c>
-      <c r="M74">
-        <f t="shared" si="8"/>
-        <v>0.24</v>
-      </c>
-      <c r="N74">
-        <f t="shared" si="9"/>
-        <v>0.45899999999999996</v>
-      </c>
-      <c r="O74">
-        <f t="shared" si="6"/>
-        <v>0.96</v>
-      </c>
-      <c r="P74">
-        <f t="shared" si="7"/>
-        <v>1.8359999999999999</v>
-      </c>
-      <c r="S74" t="s">
-        <v>80</v>
-      </c>
-      <c r="T74">
-        <f>SUM(O71:O87)</f>
-        <v>12.864000000000001</v>
-      </c>
-      <c r="U74">
-        <f>SUM(P71:P87)</f>
-        <v>17.762999999999998</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B75">
         <v>649</v>
@@ -10752,57 +7810,25 @@
       <c r="C75" t="s">
         <v>32</v>
       </c>
-      <c r="D75" t="s">
-        <v>12</v>
+      <c r="D75" s="37" t="s">
+        <v>13</v>
       </c>
       <c r="E75">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="F75">
-        <v>8.4745762711864403E-2</v>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="G75">
-        <v>1.08</v>
+        <v>0.57500000000000007</v>
       </c>
       <c r="H75">
-        <v>1.97</v>
-      </c>
-      <c r="I75">
-        <f>G75*ponderaciones!$C$14</f>
-        <v>0.54</v>
-      </c>
-      <c r="J75">
-        <f>H75*ponderaciones!$C$14</f>
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="K75">
-        <f>G75*ponderaciones!$D$14</f>
-        <v>1.08</v>
-      </c>
-      <c r="L75">
-        <f>H75*ponderaciones!$D$14</f>
-        <v>1.97</v>
-      </c>
-      <c r="M75">
-        <f t="shared" si="8"/>
-        <v>0.70200000000000007</v>
-      </c>
-      <c r="N75">
-        <f t="shared" si="9"/>
-        <v>1.2805</v>
-      </c>
-      <c r="O75">
-        <f t="shared" si="6"/>
-        <v>1.4040000000000001</v>
-      </c>
-      <c r="P75">
-        <f t="shared" si="7"/>
-        <v>2.5609999999999999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B76">
         <v>649</v>
@@ -10810,8 +7836,8 @@
       <c r="C76" t="s">
         <v>32</v>
       </c>
-      <c r="D76" t="s">
-        <v>13</v>
+      <c r="D76" s="39" t="s">
+        <v>14</v>
       </c>
       <c r="E76">
         <v>33</v>
@@ -10820,47 +7846,15 @@
         <v>5.0847457627118647E-2</v>
       </c>
       <c r="G76">
-        <v>0.57500000000000007</v>
+        <v>0.45</v>
       </c>
       <c r="H76">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="I76">
-        <f>G76*ponderaciones!$C$15</f>
-        <v>0.28750000000000003</v>
-      </c>
-      <c r="J76">
-        <f>H76*ponderaciones!$C$15</f>
-        <v>0.55500000000000005</v>
-      </c>
-      <c r="K76">
-        <f>G76*ponderaciones!$D$15</f>
-        <v>0.57500000000000007</v>
-      </c>
-      <c r="L76">
-        <f>H76*ponderaciones!$D$15</f>
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="M76">
-        <f t="shared" si="8"/>
-        <v>0.28750000000000003</v>
-      </c>
-      <c r="N76">
-        <f t="shared" si="9"/>
-        <v>0.55500000000000005</v>
-      </c>
-      <c r="O76">
-        <f t="shared" si="6"/>
-        <v>0.57500000000000007</v>
-      </c>
-      <c r="P76">
-        <f t="shared" si="7"/>
-        <v>1.1100000000000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B77">
         <v>649</v>
@@ -10868,57 +7862,25 @@
       <c r="C77" t="s">
         <v>32</v>
       </c>
-      <c r="D77" t="s">
-        <v>14</v>
+      <c r="D77" s="40" t="s">
+        <v>15</v>
       </c>
       <c r="E77">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F77">
-        <v>5.0847457627118647E-2</v>
+        <v>1.6949152542372881E-2</v>
       </c>
       <c r="G77">
-        <v>0.45</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H77">
-        <v>0.69</v>
-      </c>
-      <c r="I77">
-        <f>G77*ponderaciones!$C$16</f>
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="J77">
-        <f>H77*ponderaciones!$C$16</f>
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="K77">
-        <f>G77*ponderaciones!$D$16</f>
-        <v>0.45</v>
-      </c>
-      <c r="L77">
-        <f>H77*ponderaciones!$D$16</f>
-        <v>0.69</v>
-      </c>
-      <c r="M77">
-        <f t="shared" si="8"/>
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="N77">
-        <f t="shared" si="9"/>
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="O77">
-        <f t="shared" si="6"/>
-        <v>0.45</v>
-      </c>
-      <c r="P77">
-        <f t="shared" si="7"/>
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B78">
         <v>649</v>
@@ -10926,57 +7888,25 @@
       <c r="C78" t="s">
         <v>32</v>
       </c>
-      <c r="D78" t="s">
-        <v>15</v>
+      <c r="D78" s="37" t="s">
+        <v>16</v>
       </c>
       <c r="E78">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="F78">
-        <v>1.6949152542372881E-2</v>
+        <v>8.4745762711864403E-2</v>
       </c>
       <c r="G78">
-        <v>1.1499999999999999</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="H78">
-        <v>1.17</v>
-      </c>
-      <c r="I78">
-        <f>G78*ponderaciones!$C$17</f>
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="J78">
-        <f>H78*ponderaciones!$C$17</f>
-        <v>0.58499999999999996</v>
-      </c>
-      <c r="K78">
-        <f>G78*ponderaciones!$D$17</f>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="L78">
-        <f>H78*ponderaciones!$D$17</f>
-        <v>1.17</v>
-      </c>
-      <c r="M78">
-        <f t="shared" si="8"/>
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="N78">
-        <f t="shared" si="9"/>
-        <v>0.58499999999999996</v>
-      </c>
-      <c r="O78">
-        <f t="shared" si="6"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="P78">
-        <f t="shared" si="7"/>
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B79">
         <v>649</v>
@@ -10984,57 +7914,25 @@
       <c r="C79" t="s">
         <v>32</v>
       </c>
-      <c r="D79" t="s">
-        <v>16</v>
+      <c r="D79" s="40" t="s">
+        <v>17</v>
       </c>
       <c r="E79">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="F79">
-        <v>8.4745762711864403E-2</v>
+        <v>1.6949152542372881E-2</v>
       </c>
       <c r="G79">
-        <v>0.42499999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="H79">
-        <v>0.63</v>
-      </c>
-      <c r="I79">
-        <f>G79*ponderaciones!$C$18</f>
-        <v>0.21249999999999999</v>
-      </c>
-      <c r="J79">
-        <f>H79*ponderaciones!$C$18</f>
-        <v>0.315</v>
-      </c>
-      <c r="K79">
-        <f>G79*ponderaciones!$D$18</f>
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="L79">
-        <f>H79*ponderaciones!$D$18</f>
-        <v>0.63</v>
-      </c>
-      <c r="M79">
-        <f t="shared" si="8"/>
-        <v>0.21249999999999999</v>
-      </c>
-      <c r="N79">
-        <f t="shared" si="9"/>
-        <v>0.315</v>
-      </c>
-      <c r="O79">
-        <f t="shared" si="6"/>
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="P79">
-        <f t="shared" si="7"/>
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B80">
         <v>649</v>
@@ -11042,57 +7940,25 @@
       <c r="C80" t="s">
         <v>32</v>
       </c>
-      <c r="D80" t="s">
-        <v>17</v>
+      <c r="D80" s="37" t="s">
+        <v>18</v>
       </c>
       <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0.87499999999999989</v>
+      </c>
+      <c r="H80">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
         <v>11</v>
-      </c>
-      <c r="F80">
-        <v>1.6949152542372881E-2</v>
-      </c>
-      <c r="G80">
-        <v>0.45</v>
-      </c>
-      <c r="H80">
-        <v>0.77</v>
-      </c>
-      <c r="I80">
-        <f>G80*ponderaciones!$C$19</f>
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="J80">
-        <f>H80*ponderaciones!$C$19</f>
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="K80">
-        <f>G80*ponderaciones!$D$19</f>
-        <v>0.45</v>
-      </c>
-      <c r="L80">
-        <f>H80*ponderaciones!$D$19</f>
-        <v>0.77</v>
-      </c>
-      <c r="M80">
-        <f t="shared" si="8"/>
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="N80">
-        <f t="shared" si="9"/>
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="O80">
-        <f t="shared" si="6"/>
-        <v>0.45</v>
-      </c>
-      <c r="P80">
-        <f t="shared" si="7"/>
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>10</v>
       </c>
       <c r="B81">
         <v>649</v>
@@ -11101,56 +7967,24 @@
         <v>32</v>
       </c>
       <c r="D81" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>0.10169491525423729</v>
       </c>
       <c r="G81">
-        <v>0.87499999999999989</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="H81">
-        <v>0.87</v>
-      </c>
-      <c r="I81">
-        <f>G81*ponderaciones!$C$20</f>
-        <v>0.7</v>
-      </c>
-      <c r="J81">
-        <f>H81*ponderaciones!$C$20</f>
-        <v>0.69600000000000006</v>
-      </c>
-      <c r="K81">
-        <f>G81*ponderaciones!$D$20</f>
-        <v>0.87499999999999989</v>
-      </c>
-      <c r="L81">
-        <f>H81*ponderaciones!$D$20</f>
-        <v>0.87</v>
-      </c>
-      <c r="M81">
-        <f t="shared" si="8"/>
-        <v>0.7</v>
-      </c>
-      <c r="N81">
-        <f t="shared" si="9"/>
-        <v>0.69600000000000006</v>
-      </c>
-      <c r="O81">
-        <f t="shared" si="6"/>
-        <v>0.87499999999999989</v>
-      </c>
-      <c r="P81">
-        <f t="shared" si="7"/>
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B82">
         <v>649</v>
@@ -11158,57 +7992,25 @@
       <c r="C82" t="s">
         <v>32</v>
       </c>
-      <c r="D82" t="s">
-        <v>19</v>
+      <c r="D82" s="39" t="s">
+        <v>20</v>
       </c>
       <c r="E82">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="F82">
-        <v>0.10169491525423729</v>
+        <v>1.6949152542372881E-2</v>
       </c>
       <c r="G82">
-        <v>0.47499999999999998</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="H82">
-        <v>0.92</v>
-      </c>
-      <c r="I82">
-        <f>G82*ponderaciones!$C$21</f>
-        <v>0.23749999999999999</v>
-      </c>
-      <c r="J82">
-        <f>H82*ponderaciones!$C$21</f>
-        <v>0.46</v>
-      </c>
-      <c r="K82">
-        <f>G82*ponderaciones!$D$21</f>
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="L82">
-        <f>H82*ponderaciones!$D$21</f>
-        <v>0.92</v>
-      </c>
-      <c r="M82">
-        <f t="shared" si="8"/>
-        <v>0.23749999999999999</v>
-      </c>
-      <c r="N82">
-        <f t="shared" si="9"/>
-        <v>0.46</v>
-      </c>
-      <c r="O82">
-        <f t="shared" si="6"/>
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="P82">
-        <f t="shared" si="7"/>
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B83">
         <v>649</v>
@@ -11216,57 +8018,25 @@
       <c r="C83" t="s">
         <v>32</v>
       </c>
-      <c r="D83" t="s">
-        <v>20</v>
+      <c r="D83" s="37" t="s">
+        <v>21</v>
       </c>
       <c r="E83">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>1.6949152542372881E-2</v>
+        <v>0</v>
       </c>
       <c r="G83">
-        <v>0.67500000000000004</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="H83">
-        <v>0.85</v>
-      </c>
-      <c r="I83">
-        <f>G83*ponderaciones!$C$22</f>
-        <v>0.33750000000000002</v>
-      </c>
-      <c r="J83">
-        <f>H83*ponderaciones!$C$22</f>
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="K83">
-        <f>G83*ponderaciones!$D$22</f>
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="L83">
-        <f>H83*ponderaciones!$D$22</f>
-        <v>0.85</v>
-      </c>
-      <c r="M83">
-        <f t="shared" si="8"/>
-        <v>0.33750000000000002</v>
-      </c>
-      <c r="N83">
-        <f t="shared" si="9"/>
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="O83">
-        <f t="shared" si="6"/>
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="P83">
-        <f t="shared" si="7"/>
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B84">
         <v>649</v>
@@ -11274,8 +8044,8 @@
       <c r="C84" t="s">
         <v>32</v>
       </c>
-      <c r="D84" t="s">
-        <v>21</v>
+      <c r="D84" s="39" t="s">
+        <v>22</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -11284,47 +8054,15 @@
         <v>0</v>
       </c>
       <c r="G84">
-        <v>0.82499999999999996</v>
+        <v>1.05</v>
       </c>
       <c r="H84">
-        <v>0.79</v>
-      </c>
-      <c r="I84">
-        <f>G84*ponderaciones!$C$23</f>
-        <v>0.41249999999999998</v>
-      </c>
-      <c r="J84">
-        <f>H84*ponderaciones!$C$23</f>
-        <v>0.39500000000000002</v>
-      </c>
-      <c r="K84">
-        <f>G84*ponderaciones!$D$23</f>
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="L84">
-        <f>H84*ponderaciones!$D$23</f>
-        <v>0.79</v>
-      </c>
-      <c r="M84">
-        <f t="shared" si="8"/>
-        <v>0.41249999999999998</v>
-      </c>
-      <c r="N84">
-        <f t="shared" si="9"/>
-        <v>0.39500000000000002</v>
-      </c>
-      <c r="O84">
-        <f t="shared" si="6"/>
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="P84">
-        <f t="shared" si="7"/>
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B85">
         <v>649</v>
@@ -11332,877 +8070,49 @@
       <c r="C85" t="s">
         <v>32</v>
       </c>
-      <c r="D85" t="s">
-        <v>22</v>
+      <c r="D85" s="40" t="s">
+        <v>23</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>5.0847457627118647E-2</v>
       </c>
       <c r="G85">
-        <v>1.05</v>
+        <v>0.65</v>
       </c>
       <c r="H85">
-        <v>0.97</v>
-      </c>
-      <c r="I85">
-        <f>G85*ponderaciones!$C$24</f>
-        <v>0.315</v>
-      </c>
-      <c r="J85">
-        <f>H85*ponderaciones!$C$24</f>
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="K85">
-        <f>G85*ponderaciones!$D$24</f>
-        <v>1.26</v>
-      </c>
-      <c r="L85">
-        <f>H85*ponderaciones!$D$24</f>
-        <v>1.1639999999999999</v>
-      </c>
-      <c r="M85">
-        <f t="shared" si="8"/>
-        <v>0.315</v>
-      </c>
-      <c r="N85">
-        <f t="shared" si="9"/>
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="O85">
-        <f t="shared" si="6"/>
-        <v>1.26</v>
-      </c>
-      <c r="P85">
-        <f t="shared" si="7"/>
-        <v>1.1639999999999999</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>15</v>
-      </c>
-      <c r="B86">
-        <v>649</v>
-      </c>
-      <c r="C86" t="s">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="42">
+        <v>16</v>
+      </c>
+      <c r="B86" s="21">
+        <v>649</v>
+      </c>
+      <c r="C86" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D86" t="s">
-        <v>23</v>
-      </c>
-      <c r="E86">
+      <c r="D86" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E86" s="21">
         <v>33</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="21">
         <v>5.0847457627118647E-2</v>
       </c>
-      <c r="G86">
-        <v>0.65</v>
-      </c>
-      <c r="H86">
-        <v>0.82</v>
-      </c>
-      <c r="I86">
-        <f>G86*ponderaciones!$C$25</f>
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="J86">
-        <f>H86*ponderaciones!$C$25</f>
-        <v>0.41</v>
-      </c>
-      <c r="K86">
-        <f>G86*ponderaciones!$D$25</f>
-        <v>0.65</v>
-      </c>
-      <c r="L86">
-        <f>H86*ponderaciones!$D$25</f>
-        <v>0.82</v>
-      </c>
-      <c r="M86">
-        <f t="shared" si="8"/>
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="N86">
-        <f t="shared" si="9"/>
-        <v>0.41</v>
-      </c>
-      <c r="O86">
-        <f t="shared" si="6"/>
-        <v>0.65</v>
-      </c>
-      <c r="P86">
-        <f t="shared" si="7"/>
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>16</v>
-      </c>
-      <c r="B87">
-        <v>649</v>
-      </c>
-      <c r="C87" t="s">
-        <v>32</v>
-      </c>
-      <c r="D87" t="s">
-        <v>24</v>
-      </c>
-      <c r="E87">
-        <v>33</v>
-      </c>
-      <c r="F87">
-        <v>5.0847457627118647E-2</v>
-      </c>
-      <c r="G87">
+      <c r="G86" s="21">
         <v>1.3</v>
       </c>
-      <c r="H87">
+      <c r="H86" s="21">
         <v>1.44</v>
-      </c>
-      <c r="I87">
-        <f>G87*ponderaciones!$C$26</f>
-        <v>1.3</v>
-      </c>
-      <c r="J87">
-        <f>H87*ponderaciones!$C$26</f>
-        <v>1.44</v>
-      </c>
-      <c r="K87">
-        <f>G87*ponderaciones!$D$26</f>
-        <v>0.52</v>
-      </c>
-      <c r="L87">
-        <f>H87*ponderaciones!$D$26</f>
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="M87">
-        <f t="shared" si="8"/>
-        <v>2.6</v>
-      </c>
-      <c r="N87">
-        <f t="shared" si="9"/>
-        <v>2.88</v>
-      </c>
-      <c r="O87">
-        <f t="shared" ref="O87" si="10">IF($A87=4,K87*1.3,IF($A87=16,K87*2,K87*1))</f>
-        <v>1.04</v>
-      </c>
-      <c r="P87">
-        <f t="shared" ref="P87" si="11">IF($A87=4,L87*1.3,IF($A87=16,L87*2,L87*1))</f>
-        <v>1.1519999999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" customWidth="1"/>
-    <col min="6" max="6" width="29.5703125" customWidth="1"/>
-    <col min="7" max="19" width="13.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="N1" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="O1" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="P1" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q1" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="R1" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="S1" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="T1" s="35"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-    </row>
-    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-    </row>
-    <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="44">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="K4" s="2">
-        <v>1</v>
-      </c>
-      <c r="L4" s="2">
-        <v>1</v>
-      </c>
-      <c r="M4" s="2">
-        <v>1</v>
-      </c>
-      <c r="N4" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="O4" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="P4" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>1</v>
-      </c>
-      <c r="R4" s="2">
-        <v>1</v>
-      </c>
-      <c r="S4" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-    </row>
-    <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
-      <c r="B5" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="44">
-        <v>0.8</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="P5" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="R5" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="S5" s="2">
-        <v>1</v>
-      </c>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="22"/>
-    </row>
-    <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46"/>
-      <c r="B6" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="44">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1</v>
-      </c>
-      <c r="M6" s="2">
-        <v>1</v>
-      </c>
-      <c r="N6" s="2">
-        <v>1</v>
-      </c>
-      <c r="O6" s="2">
-        <v>1</v>
-      </c>
-      <c r="P6" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>1</v>
-      </c>
-      <c r="R6" s="2">
-        <v>1</v>
-      </c>
-      <c r="S6" s="2">
-        <v>2</v>
-      </c>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
-      <c r="B7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="45">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4">
-        <v>2</v>
-      </c>
-      <c r="F7" s="4">
-        <v>8</v>
-      </c>
-      <c r="G7" s="4">
-        <v>9</v>
-      </c>
-      <c r="H7" s="4">
-        <v>10</v>
-      </c>
-      <c r="I7" s="4">
-        <v>11</v>
-      </c>
-      <c r="J7" s="4">
-        <v>3</v>
-      </c>
-      <c r="K7" s="4">
-        <v>4</v>
-      </c>
-      <c r="L7" s="4">
-        <v>5</v>
-      </c>
-      <c r="M7" s="4">
-        <v>13</v>
-      </c>
-      <c r="N7" s="4">
-        <v>14</v>
-      </c>
-      <c r="O7" s="4">
-        <v>6</v>
-      </c>
-      <c r="P7" s="4">
-        <v>15</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>7</v>
-      </c>
-      <c r="R7" s="4">
-        <v>12</v>
-      </c>
-      <c r="S7" s="4">
-        <v>16</v>
-      </c>
-      <c r="T7" s="23"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="22">
-        <v>0.8</v>
-      </c>
-      <c r="D10" s="22">
-        <v>1</v>
-      </c>
-      <c r="E10" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="22">
-        <v>0.8</v>
-      </c>
-      <c r="D11" s="22">
-        <v>1</v>
-      </c>
-      <c r="E11" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="D12" s="22">
-        <v>1</v>
-      </c>
-      <c r="E12" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="22">
-        <v>0.3</v>
-      </c>
-      <c r="D13" s="22">
-        <v>1.2</v>
-      </c>
-      <c r="E13" s="22">
-        <v>1</v>
-      </c>
-      <c r="S13">
-        <f ca="1">+S13:FA14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="D14" s="22">
-        <v>1</v>
-      </c>
-      <c r="E14" s="22">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="D15" s="22">
-        <v>1</v>
-      </c>
-      <c r="E15" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="22">
-        <v>0.3</v>
-      </c>
-      <c r="D16" s="22">
-        <v>1</v>
-      </c>
-      <c r="E16" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="D17" s="22">
-        <v>1</v>
-      </c>
-      <c r="E17" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="D18" s="22">
-        <v>1</v>
-      </c>
-      <c r="E18" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>9</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="D19" s="22">
-        <v>1</v>
-      </c>
-      <c r="E19" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="22">
-        <v>0.8</v>
-      </c>
-      <c r="D20" s="22">
-        <v>1</v>
-      </c>
-      <c r="E20" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>11</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="D21" s="22">
-        <v>1</v>
-      </c>
-      <c r="E21" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>12</v>
-      </c>
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="D22" s="22">
-        <v>1</v>
-      </c>
-      <c r="E22" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>13</v>
-      </c>
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="D23" s="22">
-        <v>1</v>
-      </c>
-      <c r="E23" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>14</v>
-      </c>
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="22">
-        <v>0.3</v>
-      </c>
-      <c r="D24" s="22">
-        <v>1.2</v>
-      </c>
-      <c r="E24" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>15</v>
-      </c>
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="D25" s="22">
-        <v>1</v>
-      </c>
-      <c r="E25" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>16</v>
-      </c>
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" s="22">
-        <v>0.4</v>
-      </c>
-      <c r="E26" s="22">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="O1:O3"/>
-    <mergeCell ref="P1:P3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="V1:V3"/>
-    <mergeCell ref="T1:T3"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="S1:S3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="Q1:Q3"/>
-    <mergeCell ref="R1:R3"/>
-    <mergeCell ref="F1:F3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>